--- a/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
@@ -31,19 +31,131 @@
     <t xml:space="preserve">ISO3</t>
   </si>
   <si>
-    <t xml:space="preserve">hazAb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazspec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazcluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haztype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazpotlink</t>
+    <t xml:space="preserve">haz_Ab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">haz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">spec</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">haz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cluster</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">haz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">haz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">potlink</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">tremblement de terre</t>
@@ -2054,7 +2166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2076,6 +2188,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2120,7597 +2238,7601 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H474"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G122" s="0" t="s">
+      <c r="G122" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G123" s="0" t="s">
+      <c r="G123" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G124" s="0" t="s">
+      <c r="G124" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="0" t="s">
+      <c r="G140" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G141" s="0" t="s">
+      <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="0" t="s">
+      <c r="G142" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F147" s="0" t="s">
+      <c r="F147" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G147" s="0" t="s">
+      <c r="G147" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="F148" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="0" t="s">
+      <c r="G148" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F149" s="0" t="s">
+      <c r="F149" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G149" s="0" t="s">
+      <c r="G149" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="F151" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="0" t="s">
+      <c r="G151" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F156" s="0" t="s">
+      <c r="F156" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G156" s="0" t="s">
+      <c r="G156" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G157" s="0" t="s">
+      <c r="G157" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="F159" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G159" s="0" t="s">
+      <c r="G159" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G161" s="0" t="s">
+      <c r="G161" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="F162" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G162" s="0" t="s">
+      <c r="G162" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F163" s="0" t="s">
+      <c r="F163" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G163" s="0" t="s">
+      <c r="G163" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G164" s="0" t="s">
+      <c r="G164" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G165" s="0" t="s">
+      <c r="G165" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F166" s="0" t="s">
+      <c r="F166" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G166" s="0" t="s">
+      <c r="G166" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F168" s="0" t="s">
+      <c r="F168" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G168" s="0" t="s">
+      <c r="G168" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="0" t="s">
+      <c r="G169" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="F170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G170" s="0" t="s">
+      <c r="G170" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F172" s="0" t="s">
+      <c r="F172" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G172" s="0" t="s">
+      <c r="G172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="0" t="s">
+      <c r="E174" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F174" s="0" t="s">
+      <c r="F174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G174" s="0" t="s">
+      <c r="G174" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="0" t="s">
+      <c r="H174" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F175" s="0" t="s">
+      <c r="F175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G175" s="0" t="s">
+      <c r="G175" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F176" s="0" t="s">
+      <c r="F176" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G176" s="0" t="s">
+      <c r="G176" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F177" s="0" t="s">
+      <c r="F177" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G177" s="0" t="s">
+      <c r="G177" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G178" s="0" t="s">
+      <c r="G178" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F179" s="0" t="s">
+      <c r="F179" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G179" s="0" t="s">
+      <c r="G179" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F180" s="0" t="s">
+      <c r="F180" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G180" s="0" t="s">
+      <c r="G180" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="F181" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G181" s="0" t="s">
+      <c r="G181" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F182" s="0" t="s">
+      <c r="F182" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G182" s="0" t="s">
+      <c r="G182" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F189" s="0" t="s">
+      <c r="F189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G189" s="0" t="s">
+      <c r="G189" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="F190" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F194" s="0" t="s">
+      <c r="F194" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G194" s="0" t="s">
+      <c r="G194" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F195" s="0" t="s">
+      <c r="F195" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G195" s="0" t="s">
+      <c r="G195" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F196" s="0" t="s">
+      <c r="F196" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G196" s="0" t="s">
+      <c r="G196" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F197" s="0" t="s">
+      <c r="F197" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G197" s="0" t="s">
+      <c r="G197" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F199" s="0" t="s">
+      <c r="F199" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G199" s="0" t="s">
+      <c r="G199" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F202" s="0" t="s">
+      <c r="F202" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G202" s="0" t="s">
+      <c r="G202" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G203" s="0" t="s">
+      <c r="G203" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G205" s="0" t="s">
+      <c r="G205" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F207" s="0" t="s">
+      <c r="F207" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G207" s="0" t="s">
+      <c r="G207" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F208" s="0" t="s">
+      <c r="F208" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G208" s="0" t="s">
+      <c r="G208" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="D209" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F209" s="0" t="s">
+      <c r="F209" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G209" s="0" t="s">
+      <c r="G209" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="D210" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G210" s="0" t="s">
+      <c r="G210" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F211" s="0" t="s">
+      <c r="F211" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G211" s="0" t="s">
+      <c r="G211" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D212" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F212" s="0" t="s">
+      <c r="F212" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G212" s="0" t="s">
+      <c r="G212" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D213" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F213" s="0" t="s">
+      <c r="F213" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G213" s="0" t="s">
+      <c r="G213" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="F215" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G215" s="0" t="s">
+      <c r="G215" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D216" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F216" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G216" s="0" t="s">
+      <c r="G216" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F217" s="0" t="s">
+      <c r="F217" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F219" s="0" t="s">
+      <c r="F219" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G219" s="0" t="s">
+      <c r="G219" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D220" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F220" s="0" t="s">
+      <c r="F220" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G220" s="0" t="s">
+      <c r="G220" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="D221" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="F221" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G221" s="0" t="s">
+      <c r="G221" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F222" s="0" t="s">
+      <c r="F222" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G222" s="0" t="s">
+      <c r="G222" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F223" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G223" s="0" t="s">
+      <c r="G223" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F228" s="0" t="s">
+      <c r="F228" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G228" s="0" t="s">
+      <c r="G228" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="D229" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F229" s="0" t="s">
+      <c r="F229" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G229" s="0" t="s">
+      <c r="G229" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D232" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G232" s="0" t="s">
+      <c r="G232" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="D243" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F243" s="0" t="s">
+      <c r="F243" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G243" s="0" t="s">
+      <c r="G243" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="D244" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F244" s="0" t="s">
+      <c r="F244" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="0" t="s">
+      <c r="G244" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="A245" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="D250" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F250" s="0" t="s">
+      <c r="F250" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G250" s="0" t="s">
+      <c r="G250" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="A254" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C254" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C255" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="A256" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C256" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C257" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="A258" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D258" s="0" t="s">
+      <c r="D258" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F258" s="0" t="s">
+      <c r="F258" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G258" s="0" t="s">
+      <c r="G258" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C259" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D259" s="0" t="s">
+      <c r="D259" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F259" s="0" t="s">
+      <c r="F259" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G259" s="0" t="s">
+      <c r="G259" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="A260" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="C260" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D260" s="0" t="s">
+      <c r="D260" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F260" s="0" t="s">
+      <c r="F260" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G260" s="0" t="s">
+      <c r="G260" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C261" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D261" s="0" t="s">
+      <c r="D261" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F261" s="0" t="s">
+      <c r="F261" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G261" s="0" t="s">
+      <c r="G261" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="C262" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D262" s="0" t="s">
+      <c r="D262" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F262" s="0" t="s">
+      <c r="F262" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G262" s="0" t="s">
+      <c r="G262" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D263" s="0" t="s">
+      <c r="D263" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F263" s="0" t="s">
+      <c r="F263" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G263" s="0" t="s">
+      <c r="G263" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B264" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C264" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D264" s="0" t="s">
+      <c r="D264" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F264" s="0" t="s">
+      <c r="F264" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G264" s="0" t="s">
+      <c r="G264" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="A265" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="B265" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C265" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D265" s="0" t="s">
+      <c r="D265" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F265" s="0" t="s">
+      <c r="F265" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G265" s="0" t="s">
+      <c r="G265" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="A266" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C266" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+      <c r="A267" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B267" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D268" s="0" t="s">
+      <c r="D268" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F268" s="0" t="s">
+      <c r="F268" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G268" s="0" t="s">
+      <c r="G268" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="A269" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="B269" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C269" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="C270" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D270" s="0" t="s">
+      <c r="D270" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F270" s="0" t="s">
+      <c r="F270" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G270" s="0" t="s">
+      <c r="G270" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="C271" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D271" s="0" t="s">
+      <c r="D271" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F271" s="0" t="s">
+      <c r="F271" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G271" s="0" t="s">
+      <c r="G271" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="C272" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D272" s="0" t="s">
+      <c r="D272" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F272" s="0" t="s">
+      <c r="F272" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G272" s="0" t="s">
+      <c r="G272" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="A273" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F273" s="0" t="s">
+      <c r="F273" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="A274" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="C274" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="A275" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C275" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="0" t="s">
+      <c r="D275" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F275" s="0" t="s">
+      <c r="F275" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G275" s="0" t="s">
+      <c r="G275" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="A276" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="B276" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="C276" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="A277" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="C277" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="A278" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="B278" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C278" s="0" t="s">
+      <c r="C278" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D278" s="0" t="s">
+      <c r="D278" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E278" s="0" t="s">
+      <c r="E278" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F278" s="0" t="s">
+      <c r="F278" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G278" s="0" t="s">
+      <c r="G278" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H278" s="0" t="s">
+      <c r="H278" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="A279" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="C279" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D279" s="0" t="s">
+      <c r="D279" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G279" s="0" t="s">
+      <c r="G279" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="A280" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B280" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="C280" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D280" s="0" t="s">
+      <c r="D280" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F280" s="0" t="s">
+      <c r="F280" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G280" s="0" t="s">
+      <c r="G280" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="A281" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B281" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="C281" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="A282" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="B282" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="C282" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D282" s="0" t="s">
+      <c r="D282" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F282" s="0" t="s">
+      <c r="F282" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G282" s="0" t="s">
+      <c r="G282" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="A283" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="B283" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="C283" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="A284" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B284" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C284" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D284" s="0" t="s">
+      <c r="D284" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F284" s="0" t="s">
+      <c r="F284" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G284" s="0" t="s">
+      <c r="G284" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="A285" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="B285" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="C285" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="A286" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C286" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D286" s="0" t="s">
+      <c r="D286" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F286" s="0" t="s">
+      <c r="F286" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G286" s="0" t="s">
+      <c r="G286" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="A287" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B287" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="C287" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="A288" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B288" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C288" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D288" s="0" t="s">
+      <c r="D288" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G288" s="0" t="s">
+      <c r="G288" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="A289" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="C289" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D289" s="0" t="s">
+      <c r="D289" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F289" s="0" t="s">
+      <c r="F289" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G289" s="0" t="s">
+      <c r="G289" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="A290" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B290" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C290" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D290" s="0" t="s">
+      <c r="D290" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F290" s="0" t="s">
+      <c r="F290" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G290" s="0" t="s">
+      <c r="G290" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="A291" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B291" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="C291" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+      <c r="A292" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B292" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="C292" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+      <c r="A293" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="B293" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+      <c r="A294" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="B294" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="C294" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="A295" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B295" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="C295" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+      <c r="A296" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="B296" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="C296" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+      <c r="A297" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="B297" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="C297" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+      <c r="A298" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="B298" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="C298" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+      <c r="A299" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="B299" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="C299" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="A300" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="B300" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="C300" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="A301" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="C301" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="A302" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B302" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C302" s="0" t="s">
+      <c r="C302" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="A303" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B303" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C303" s="0" t="s">
+      <c r="C303" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+      <c r="A304" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B304" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="C304" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D304" s="0" t="s">
+      <c r="D304" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F304" s="0" t="s">
+      <c r="F304" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G304" s="0" t="s">
+      <c r="G304" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+      <c r="A305" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B305" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C305" s="0" t="s">
+      <c r="C305" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="A306" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B306" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C306" s="0" t="s">
+      <c r="C306" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D306" s="0" t="s">
+      <c r="D306" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F306" s="0" t="s">
+      <c r="F306" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G306" s="0" t="s">
+      <c r="G306" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+      <c r="A307" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="B307" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="C307" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+      <c r="A308" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B308" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="C308" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D308" s="0" t="s">
+      <c r="D308" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F308" s="0" t="s">
+      <c r="F308" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G308" s="0" t="s">
+      <c r="G308" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+      <c r="A309" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="B309" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C309" s="0" t="s">
+      <c r="C309" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D309" s="0" t="s">
+      <c r="D309" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F309" s="0" t="s">
+      <c r="F309" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G309" s="0" t="s">
+      <c r="G309" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+      <c r="A310" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B310" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C310" s="0" t="s">
+      <c r="C310" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D310" s="0" t="s">
+      <c r="D310" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F310" s="0" t="s">
+      <c r="F310" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G310" s="0" t="s">
+      <c r="G310" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="B311" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C311" s="0" t="s">
+      <c r="C311" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D311" s="0" t="s">
+      <c r="D311" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F311" s="0" t="s">
+      <c r="F311" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G311" s="0" t="s">
+      <c r="G311" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+      <c r="A312" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="B312" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="C312" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D312" s="0" t="s">
+      <c r="D312" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G312" s="0" t="s">
+      <c r="G312" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+      <c r="A313" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="B313" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="C313" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D313" s="0" t="s">
+      <c r="D313" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F313" s="0" t="s">
+      <c r="F313" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G313" s="0" t="s">
+      <c r="G313" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="A314" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="B314" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C314" s="0" t="s">
+      <c r="C314" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D314" s="0" t="s">
+      <c r="D314" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F314" s="0" t="s">
+      <c r="F314" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G314" s="0" t="s">
+      <c r="G314" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+      <c r="A315" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C315" s="0" t="s">
+      <c r="C315" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+      <c r="A316" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B316" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C316" s="0" t="s">
+      <c r="C316" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D316" s="0" t="s">
+      <c r="D316" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E316" s="0" t="s">
+      <c r="E316" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F316" s="0" t="s">
+      <c r="F316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="0" t="s">
+      <c r="G316" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H316" s="0" t="s">
+      <c r="H316" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+      <c r="A317" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="B317" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="C317" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D317" s="0" t="s">
+      <c r="D317" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F317" s="0" t="s">
+      <c r="F317" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G317" s="0" t="s">
+      <c r="G317" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+      <c r="A318" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B318" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="C318" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+      <c r="A319" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="C319" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D319" s="0" t="s">
+      <c r="D319" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F319" s="0" t="s">
+      <c r="F319" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G319" s="0" t="s">
+      <c r="G319" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+      <c r="A320" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="B320" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C320" s="0" t="s">
+      <c r="C320" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D320" s="0" t="s">
+      <c r="D320" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F320" s="0" t="s">
+      <c r="F320" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G320" s="0" t="s">
+      <c r="G320" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+      <c r="A321" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="B321" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C321" s="0" t="s">
+      <c r="C321" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+      <c r="A322" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="B322" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C322" s="0" t="s">
+      <c r="C322" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D322" s="0" t="s">
+      <c r="D322" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F322" s="0" t="s">
+      <c r="F322" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G322" s="0" t="s">
+      <c r="G322" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+      <c r="A323" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="B323" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C323" s="0" t="s">
+      <c r="C323" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D323" s="0" t="s">
+      <c r="D323" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F323" s="0" t="s">
+      <c r="F323" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G323" s="0" t="s">
+      <c r="G323" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+      <c r="A324" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="B324" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C324" s="0" t="s">
+      <c r="C324" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+      <c r="A325" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="B325" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C325" s="0" t="s">
+      <c r="C325" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D325" s="0" t="s">
+      <c r="D325" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F325" s="0" t="s">
+      <c r="F325" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G325" s="0" t="s">
+      <c r="G325" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="A326" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="B326" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C326" s="0" t="s">
+      <c r="C326" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D326" s="0" t="s">
+      <c r="D326" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G326" s="0" t="s">
+      <c r="G326" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+      <c r="A327" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="B327" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C327" s="0" t="s">
+      <c r="C327" s="1" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+      <c r="A328" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="B328" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C328" s="0" t="s">
+      <c r="C328" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+      <c r="A329" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="B329" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C329" s="0" t="s">
+      <c r="C329" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D329" s="0" t="s">
+      <c r="D329" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F329" s="0" t="s">
+      <c r="F329" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G329" s="0" t="s">
+      <c r="G329" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+      <c r="A330" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="B330" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C330" s="0" t="s">
+      <c r="C330" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D330" s="0" t="s">
+      <c r="D330" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F330" s="0" t="s">
+      <c r="F330" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G330" s="0" t="s">
+      <c r="G330" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+      <c r="A331" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="B331" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C331" s="0" t="s">
+      <c r="C331" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D331" s="0" t="s">
+      <c r="D331" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F331" s="0" t="s">
+      <c r="F331" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G331" s="0" t="s">
+      <c r="G331" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="A332" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B332" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="C332" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D332" s="0" t="s">
+      <c r="D332" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F332" s="0" t="s">
+      <c r="F332" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G332" s="0" t="s">
+      <c r="G332" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="A333" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="B333" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="C333" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D333" s="0" t="s">
+      <c r="D333" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F333" s="0" t="s">
+      <c r="F333" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G333" s="0" t="s">
+      <c r="G333" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="A334" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="B334" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C334" s="0" t="s">
+      <c r="C334" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D334" s="0" t="s">
+      <c r="D334" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F334" s="0" t="s">
+      <c r="F334" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G334" s="0" t="s">
+      <c r="G334" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="A335" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="B335" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="C335" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="B336" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C336" s="0" t="s">
+      <c r="C336" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+      <c r="A337" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="C337" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+      <c r="A338" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="C338" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D338" s="0" t="s">
+      <c r="D338" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G338" s="0" t="s">
+      <c r="G338" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+      <c r="A339" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="C339" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D339" s="0" t="s">
+      <c r="D339" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F339" s="0" t="s">
+      <c r="F339" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G339" s="0" t="s">
+      <c r="G339" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="A340" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="C340" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D340" s="0" t="s">
+      <c r="D340" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="F340" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G340" s="0" t="s">
+      <c r="G340" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+      <c r="A341" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C341" s="0" t="s">
+      <c r="C341" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D341" s="0" t="s">
+      <c r="D341" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F341" s="0" t="s">
+      <c r="F341" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G341" s="0" t="s">
+      <c r="G341" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+      <c r="A342" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C342" s="0" t="s">
+      <c r="C342" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+      <c r="A343" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C343" s="0" t="s">
+      <c r="C343" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+      <c r="A344" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="B344" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C344" s="0" t="s">
+      <c r="C344" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+      <c r="A345" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="B345" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C345" s="0" t="s">
+      <c r="C345" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+      <c r="A346" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="B346" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C346" s="0" t="s">
+      <c r="C346" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D346" s="0" t="s">
+      <c r="D346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F346" s="0" t="s">
+      <c r="F346" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G346" s="0" t="s">
+      <c r="G346" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+      <c r="A347" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="B347" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="C347" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+      <c r="A348" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B348" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="C348" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D348" s="0" t="s">
+      <c r="D348" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F348" s="0" t="s">
+      <c r="F348" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G348" s="0" t="s">
+      <c r="G348" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+      <c r="A349" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="C349" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D349" s="0" t="s">
+      <c r="D349" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F349" s="0" t="s">
+      <c r="F349" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G349" s="0" t="s">
+      <c r="G349" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+      <c r="A350" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="B350" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C350" s="0" t="s">
+      <c r="C350" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+      <c r="A351" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C351" s="0" t="s">
+      <c r="C351" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D351" s="0" t="s">
+      <c r="D351" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F351" s="0" t="s">
+      <c r="F351" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G351" s="0" t="s">
+      <c r="G351" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+      <c r="A352" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B352" s="0" t="s">
+      <c r="B352" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C352" s="0" t="s">
+      <c r="C352" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D352" s="0" t="s">
+      <c r="D352" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F352" s="0" t="s">
+      <c r="F352" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G352" s="0" t="s">
+      <c r="G352" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+      <c r="A353" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B353" s="0" t="s">
+      <c r="B353" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C353" s="0" t="s">
+      <c r="C353" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D353" s="0" t="s">
+      <c r="D353" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F353" s="0" t="s">
+      <c r="F353" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G353" s="0" t="s">
+      <c r="G353" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+      <c r="A354" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B354" s="0" t="s">
+      <c r="B354" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C354" s="0" t="s">
+      <c r="C354" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D354" s="0" t="s">
+      <c r="D354" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F354" s="0" t="s">
+      <c r="F354" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G354" s="0" t="s">
+      <c r="G354" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+      <c r="A355" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C355" s="0" t="s">
+      <c r="C355" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D355" s="0" t="s">
+      <c r="D355" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F355" s="0" t="s">
+      <c r="F355" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G355" s="0" t="s">
+      <c r="G355" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+      <c r="A356" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B356" s="0" t="s">
+      <c r="B356" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C356" s="0" t="s">
+      <c r="C356" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D356" s="0" t="s">
+      <c r="D356" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F356" s="0" t="s">
+      <c r="F356" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G356" s="0" t="s">
+      <c r="G356" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+      <c r="A357" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B357" s="0" t="s">
+      <c r="B357" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C357" s="0" t="s">
+      <c r="C357" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+      <c r="A358" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B358" s="0" t="s">
+      <c r="B358" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C358" s="0" t="s">
+      <c r="C358" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D358" s="0" t="s">
+      <c r="D358" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F358" s="0" t="s">
+      <c r="F358" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G358" s="0" t="s">
+      <c r="G358" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+      <c r="A359" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B359" s="0" t="s">
+      <c r="B359" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C359" s="0" t="s">
+      <c r="C359" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D359" s="0" t="s">
+      <c r="D359" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F359" s="0" t="s">
+      <c r="F359" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G359" s="0" t="s">
+      <c r="G359" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+      <c r="A360" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B360" s="0" t="s">
+      <c r="B360" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C360" s="0" t="s">
+      <c r="C360" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D360" s="0" t="s">
+      <c r="D360" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F360" s="0" t="s">
+      <c r="F360" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G360" s="0" t="s">
+      <c r="G360" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+      <c r="A361" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B361" s="0" t="s">
+      <c r="B361" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C361" s="0" t="s">
+      <c r="C361" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D361" s="0" t="s">
+      <c r="D361" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G361" s="0" t="s">
+      <c r="G361" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+      <c r="A362" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B362" s="0" t="s">
+      <c r="B362" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C362" s="0" t="s">
+      <c r="C362" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+      <c r="A363" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B363" s="0" t="s">
+      <c r="B363" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C363" s="0" t="s">
+      <c r="C363" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D363" s="0" t="s">
+      <c r="D363" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G363" s="0" t="s">
+      <c r="G363" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+      <c r="A364" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B364" s="0" t="s">
+      <c r="B364" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C364" s="0" t="s">
+      <c r="C364" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D364" s="0" t="s">
+      <c r="D364" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F364" s="0" t="s">
+      <c r="F364" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G364" s="0" t="s">
+      <c r="G364" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+      <c r="A365" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B365" s="0" t="s">
+      <c r="B365" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C365" s="0" t="s">
+      <c r="C365" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D365" s="0" t="s">
+      <c r="D365" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F365" s="0" t="s">
+      <c r="F365" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G365" s="0" t="s">
+      <c r="G365" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="A366" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B366" s="0" t="s">
+      <c r="B366" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C366" s="0" t="s">
+      <c r="C366" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D366" s="0" t="s">
+      <c r="D366" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F366" s="0" t="s">
+      <c r="F366" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G366" s="0" t="s">
+      <c r="G366" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="A367" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B367" s="0" t="s">
+      <c r="B367" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C367" s="0" t="s">
+      <c r="C367" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D367" s="0" t="s">
+      <c r="D367" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F367" s="0" t="s">
+      <c r="F367" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G367" s="0" t="s">
+      <c r="G367" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+      <c r="A368" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B368" s="0" t="s">
+      <c r="B368" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C368" s="0" t="s">
+      <c r="C368" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+      <c r="A369" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="B369" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C369" s="0" t="s">
+      <c r="C369" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+      <c r="A370" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B370" s="0" t="s">
+      <c r="B370" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C370" s="0" t="s">
+      <c r="C370" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D370" s="0" t="s">
+      <c r="D370" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G370" s="0" t="s">
+      <c r="G370" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+      <c r="A371" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B371" s="0" t="s">
+      <c r="B371" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C371" s="0" t="s">
+      <c r="C371" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D371" s="0" t="s">
+      <c r="D371" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F371" s="0" t="s">
+      <c r="F371" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G371" s="0" t="s">
+      <c r="G371" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+      <c r="A372" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B372" s="0" t="s">
+      <c r="B372" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C372" s="0" t="s">
+      <c r="C372" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D372" s="0" t="s">
+      <c r="D372" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F372" s="0" t="s">
+      <c r="F372" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G372" s="0" t="s">
+      <c r="G372" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+      <c r="A373" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B373" s="0" t="s">
+      <c r="B373" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C373" s="0" t="s">
+      <c r="C373" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D373" s="0" t="s">
+      <c r="D373" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E373" s="0" t="s">
+      <c r="E373" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F373" s="0" t="s">
+      <c r="F373" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G373" s="0" t="s">
+      <c r="G373" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H373" s="0" t="s">
+      <c r="H373" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+      <c r="A374" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B374" s="0" t="s">
+      <c r="B374" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C374" s="0" t="s">
+      <c r="C374" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D374" s="0" t="s">
+      <c r="D374" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F374" s="0" t="s">
+      <c r="F374" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G374" s="0" t="s">
+      <c r="G374" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+      <c r="A375" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B375" s="0" t="s">
+      <c r="B375" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C375" s="0" t="s">
+      <c r="C375" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+      <c r="A376" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B376" s="0" t="s">
+      <c r="B376" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C376" s="0" t="s">
+      <c r="C376" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+      <c r="A377" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B377" s="0" t="s">
+      <c r="B377" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C377" s="0" t="s">
+      <c r="C377" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+      <c r="A378" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B378" s="0" t="s">
+      <c r="B378" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C378" s="0" t="s">
+      <c r="C378" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+      <c r="A379" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B379" s="0" t="s">
+      <c r="B379" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C379" s="0" t="s">
+      <c r="C379" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D379" s="0" t="s">
+      <c r="D379" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G379" s="0" t="s">
+      <c r="G379" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+      <c r="A380" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="B380" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C380" s="0" t="s">
+      <c r="C380" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+      <c r="A381" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B381" s="0" t="s">
+      <c r="B381" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C381" s="0" t="s">
+      <c r="C381" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D381" s="0" t="s">
+      <c r="D381" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F381" s="0" t="s">
+      <c r="F381" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G381" s="0" t="s">
+      <c r="G381" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+      <c r="A382" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B382" s="0" t="s">
+      <c r="B382" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C382" s="0" t="s">
+      <c r="C382" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+      <c r="A383" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B383" s="0" t="s">
+      <c r="B383" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C383" s="0" t="s">
+      <c r="C383" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+      <c r="A384" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B384" s="0" t="s">
+      <c r="B384" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C384" s="0" t="s">
+      <c r="C384" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+      <c r="A385" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B385" s="0" t="s">
+      <c r="B385" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C385" s="0" t="s">
+      <c r="C385" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D385" s="0" t="s">
+      <c r="D385" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F385" s="0" t="s">
+      <c r="F385" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G385" s="0" t="s">
+      <c r="G385" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+      <c r="A386" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B386" s="0" t="s">
+      <c r="B386" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C386" s="0" t="s">
+      <c r="C386" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D386" s="0" t="s">
+      <c r="D386" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F386" s="0" t="s">
+      <c r="F386" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G386" s="0" t="s">
+      <c r="G386" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+      <c r="A387" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B387" s="0" t="s">
+      <c r="B387" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C387" s="0" t="s">
+      <c r="C387" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D387" s="0" t="s">
+      <c r="D387" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F387" s="0" t="s">
+      <c r="F387" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G387" s="0" t="s">
+      <c r="G387" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+      <c r="A388" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B388" s="0" t="s">
+      <c r="B388" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C388" s="0" t="s">
+      <c r="C388" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+      <c r="A389" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B389" s="0" t="s">
+      <c r="B389" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C389" s="0" t="s">
+      <c r="C389" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D389" s="0" t="s">
+      <c r="D389" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F389" s="0" t="s">
+      <c r="F389" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G389" s="0" t="s">
+      <c r="G389" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+      <c r="A390" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B390" s="0" t="s">
+      <c r="B390" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C390" s="0" t="s">
+      <c r="C390" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D390" s="0" t="s">
+      <c r="D390" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G390" s="0" t="s">
+      <c r="G390" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+      <c r="A391" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B391" s="0" t="s">
+      <c r="B391" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C391" s="0" t="s">
+      <c r="C391" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+      <c r="A392" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B392" s="0" t="s">
+      <c r="B392" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C392" s="0" t="s">
+      <c r="C392" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D392" s="0" t="s">
+      <c r="D392" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F392" s="0" t="s">
+      <c r="F392" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G392" s="0" t="s">
+      <c r="G392" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+      <c r="A393" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B393" s="0" t="s">
+      <c r="B393" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C393" s="0" t="s">
+      <c r="C393" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D393" s="0" t="s">
+      <c r="D393" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F393" s="0" t="s">
+      <c r="F393" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G393" s="0" t="s">
+      <c r="G393" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+      <c r="A394" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B394" s="0" t="s">
+      <c r="B394" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C394" s="0" t="s">
+      <c r="C394" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D394" s="0" t="s">
+      <c r="D394" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F394" s="0" t="s">
+      <c r="F394" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G394" s="0" t="s">
+      <c r="G394" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+      <c r="A395" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B395" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C395" s="0" t="s">
+      <c r="C395" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D395" s="0" t="s">
+      <c r="D395" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F395" s="0" t="s">
+      <c r="F395" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G395" s="0" t="s">
+      <c r="G395" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+      <c r="A396" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B396" s="0" t="s">
+      <c r="B396" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C396" s="0" t="s">
+      <c r="C396" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+      <c r="A397" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="B397" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C397" s="0" t="s">
+      <c r="C397" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D397" s="0" t="s">
+      <c r="D397" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F397" s="0" t="s">
+      <c r="F397" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G397" s="0" t="s">
+      <c r="G397" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+      <c r="A398" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="B398" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C398" s="0" t="s">
+      <c r="C398" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D398" s="0" t="s">
+      <c r="D398" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E398" s="0" t="s">
+      <c r="E398" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F398" s="0" t="s">
+      <c r="F398" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G398" s="0" t="s">
+      <c r="G398" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H398" s="0" t="s">
+      <c r="H398" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+      <c r="A399" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="B399" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C399" s="0" t="s">
+      <c r="C399" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+      <c r="A400" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B400" s="0" t="s">
+      <c r="B400" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C400" s="0" t="s">
+      <c r="C400" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+      <c r="A401" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B401" s="0" t="s">
+      <c r="B401" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C401" s="0" t="s">
+      <c r="C401" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+      <c r="A402" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B402" s="0" t="s">
+      <c r="B402" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C402" s="0" t="s">
+      <c r="C402" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D402" s="0" t="s">
+      <c r="D402" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F402" s="0" t="s">
+      <c r="F402" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G402" s="0" t="s">
+      <c r="G402" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+      <c r="A403" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B403" s="0" t="s">
+      <c r="B403" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C403" s="0" t="s">
+      <c r="C403" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D403" s="0" t="s">
+      <c r="D403" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F403" s="0" t="s">
+      <c r="F403" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G403" s="0" t="s">
+      <c r="G403" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+      <c r="A404" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B404" s="0" t="s">
+      <c r="B404" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C404" s="0" t="s">
+      <c r="C404" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+      <c r="A405" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B405" s="0" t="s">
+      <c r="B405" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C405" s="0" t="s">
+      <c r="C405" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+      <c r="A406" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B406" s="0" t="s">
+      <c r="B406" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C406" s="0" t="s">
+      <c r="C406" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D406" s="0" t="s">
+      <c r="D406" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F406" s="0" t="s">
+      <c r="F406" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G406" s="0" t="s">
+      <c r="G406" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
+      <c r="A407" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B407" s="0" t="s">
+      <c r="B407" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C407" s="0" t="s">
+      <c r="C407" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D407" s="0" t="s">
+      <c r="D407" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F407" s="0" t="s">
+      <c r="F407" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G407" s="0" t="s">
+      <c r="G407" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+      <c r="A408" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B408" s="0" t="s">
+      <c r="B408" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C408" s="0" t="s">
+      <c r="C408" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D408" s="0" t="s">
+      <c r="D408" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F408" s="0" t="s">
+      <c r="F408" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G408" s="0" t="s">
+      <c r="G408" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+      <c r="A409" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B409" s="0" t="s">
+      <c r="B409" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C409" s="0" t="s">
+      <c r="C409" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D409" s="0" t="s">
+      <c r="D409" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F409" s="0" t="s">
+      <c r="F409" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G409" s="0" t="s">
+      <c r="G409" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+      <c r="A410" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B410" s="0" t="s">
+      <c r="B410" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C410" s="0" t="s">
+      <c r="C410" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D410" s="0" t="s">
+      <c r="D410" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F410" s="0" t="s">
+      <c r="F410" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G410" s="0" t="s">
+      <c r="G410" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+      <c r="A411" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B411" s="0" t="s">
+      <c r="B411" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C411" s="0" t="s">
+      <c r="C411" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D411" s="0" t="s">
+      <c r="D411" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F411" s="0" t="s">
+      <c r="F411" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G411" s="0" t="s">
+      <c r="G411" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
+      <c r="A412" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B412" s="0" t="s">
+      <c r="B412" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C412" s="0" t="s">
+      <c r="C412" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D412" s="0" t="s">
+      <c r="D412" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F412" s="0" t="s">
+      <c r="F412" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G412" s="0" t="s">
+      <c r="G412" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
+      <c r="A413" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B413" s="0" t="s">
+      <c r="B413" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C413" s="0" t="s">
+      <c r="C413" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D413" s="0" t="s">
+      <c r="D413" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F413" s="0" t="s">
+      <c r="F413" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G413" s="0" t="s">
+      <c r="G413" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+      <c r="A414" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B414" s="0" t="s">
+      <c r="B414" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C414" s="0" t="s">
+      <c r="C414" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D414" s="0" t="s">
+      <c r="D414" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F414" s="0" t="s">
+      <c r="F414" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G414" s="0" t="s">
+      <c r="G414" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="A415" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B415" s="0" t="s">
+      <c r="B415" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C415" s="0" t="s">
+      <c r="C415" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D415" s="0" t="s">
+      <c r="D415" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F415" s="0" t="s">
+      <c r="F415" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G415" s="0" t="s">
+      <c r="G415" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+      <c r="A416" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B416" s="0" t="s">
+      <c r="B416" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C416" s="0" t="s">
+      <c r="C416" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+      <c r="A417" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B417" s="0" t="s">
+      <c r="B417" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C417" s="0" t="s">
+      <c r="C417" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D417" s="0" t="s">
+      <c r="D417" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G417" s="0" t="s">
+      <c r="G417" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+      <c r="A418" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B418" s="0" t="s">
+      <c r="B418" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C418" s="0" t="s">
+      <c r="C418" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D418" s="0" t="s">
+      <c r="D418" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F418" s="0" t="s">
+      <c r="F418" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G418" s="0" t="s">
+      <c r="G418" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+      <c r="A419" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B419" s="0" t="s">
+      <c r="B419" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C419" s="0" t="s">
+      <c r="C419" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+      <c r="A420" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B420" s="0" t="s">
+      <c r="B420" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C420" s="0" t="s">
+      <c r="C420" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+      <c r="A421" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B421" s="0" t="s">
+      <c r="B421" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C421" s="0" t="s">
+      <c r="C421" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+      <c r="A422" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B422" s="0" t="s">
+      <c r="B422" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C422" s="0" t="s">
+      <c r="C422" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+      <c r="A423" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B423" s="0" t="s">
+      <c r="B423" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C423" s="0" t="s">
+      <c r="C423" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+      <c r="A424" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B424" s="0" t="s">
+      <c r="B424" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C424" s="0" t="s">
+      <c r="C424" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+      <c r="A425" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B425" s="0" t="s">
+      <c r="B425" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C425" s="0" t="s">
+      <c r="C425" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+      <c r="A426" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B426" s="0" t="s">
+      <c r="B426" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C426" s="0" t="s">
+      <c r="C426" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
+      <c r="A427" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B427" s="0" t="s">
+      <c r="B427" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C427" s="0" t="s">
+      <c r="C427" s="1" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
+      <c r="A428" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B428" s="0" t="s">
+      <c r="B428" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C428" s="0" t="s">
+      <c r="C428" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D428" s="0" t="s">
+      <c r="D428" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F428" s="0" t="s">
+      <c r="F428" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G428" s="0" t="s">
+      <c r="G428" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
+      <c r="A429" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B429" s="0" t="s">
+      <c r="B429" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C429" s="0" t="s">
+      <c r="C429" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D429" s="0" t="s">
+      <c r="D429" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F429" s="0" t="s">
+      <c r="F429" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G429" s="0" t="s">
+      <c r="G429" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
+      <c r="A430" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B430" s="0" t="s">
+      <c r="B430" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C430" s="0" t="s">
+      <c r="C430" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D430" s="0" t="s">
+      <c r="D430" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F430" s="0" t="s">
+      <c r="F430" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G430" s="0" t="s">
+      <c r="G430" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
+      <c r="A431" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B431" s="0" t="s">
+      <c r="B431" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C431" s="0" t="s">
+      <c r="C431" s="1" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
+      <c r="A432" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B432" s="0" t="s">
+      <c r="B432" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C432" s="0" t="s">
+      <c r="C432" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D432" s="0" t="s">
+      <c r="D432" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F432" s="0" t="s">
+      <c r="F432" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G432" s="0" t="s">
+      <c r="G432" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
+      <c r="A433" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B433" s="0" t="s">
+      <c r="B433" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C433" s="0" t="s">
+      <c r="C433" s="1" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+      <c r="A434" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B434" s="0" t="s">
+      <c r="B434" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C434" s="0" t="s">
+      <c r="C434" s="1" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
+      <c r="A435" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B435" s="0" t="s">
+      <c r="B435" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C435" s="0" t="s">
+      <c r="C435" s="1" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
+      <c r="A436" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B436" s="0" t="s">
+      <c r="B436" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C436" s="0" t="s">
+      <c r="C436" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D436" s="0" t="s">
+      <c r="D436" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F436" s="0" t="s">
+      <c r="F436" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G436" s="0" t="s">
+      <c r="G436" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
+      <c r="A437" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B437" s="0" t="s">
+      <c r="B437" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C437" s="0" t="s">
+      <c r="C437" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D437" s="0" t="s">
+      <c r="D437" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F437" s="0" t="s">
+      <c r="F437" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G437" s="0" t="s">
+      <c r="G437" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
+      <c r="A438" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B438" s="0" t="s">
+      <c r="B438" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C438" s="0" t="s">
+      <c r="C438" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D438" s="0" t="s">
+      <c r="D438" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F438" s="0" t="s">
+      <c r="F438" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G438" s="0" t="s">
+      <c r="G438" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
+      <c r="A439" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B439" s="0" t="s">
+      <c r="B439" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C439" s="0" t="s">
+      <c r="C439" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D439" s="0" t="s">
+      <c r="D439" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F439" s="0" t="s">
+      <c r="F439" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G439" s="0" t="s">
+      <c r="G439" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
+      <c r="A440" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B440" s="0" t="s">
+      <c r="B440" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C440" s="0" t="s">
+      <c r="C440" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D440" s="0" t="s">
+      <c r="D440" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F440" s="0" t="s">
+      <c r="F440" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G440" s="0" t="s">
+      <c r="G440" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
+      <c r="A441" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B441" s="0" t="s">
+      <c r="B441" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C441" s="0" t="s">
+      <c r="C441" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D441" s="0" t="s">
+      <c r="D441" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F441" s="0" t="s">
+      <c r="F441" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G441" s="0" t="s">
+      <c r="G441" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
+      <c r="A442" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B442" s="0" t="s">
+      <c r="B442" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C442" s="0" t="s">
+      <c r="C442" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D442" s="0" t="s">
+      <c r="D442" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F442" s="0" t="s">
+      <c r="F442" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G442" s="0" t="s">
+      <c r="G442" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
+      <c r="A443" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B443" s="0" t="s">
+      <c r="B443" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C443" s="0" t="s">
+      <c r="C443" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D443" s="0" t="s">
+      <c r="D443" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F443" s="0" t="s">
+      <c r="F443" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G443" s="0" t="s">
+      <c r="G443" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
+      <c r="A444" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B444" s="0" t="s">
+      <c r="B444" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C444" s="0" t="s">
+      <c r="C444" s="1" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
+      <c r="A445" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B445" s="0" t="s">
+      <c r="B445" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C445" s="0" t="s">
+      <c r="C445" s="1" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
+      <c r="A446" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B446" s="0" t="s">
+      <c r="B446" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C446" s="0" t="s">
+      <c r="C446" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D446" s="0" t="s">
+      <c r="D446" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F446" s="0" t="s">
+      <c r="F446" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G446" s="0" t="s">
+      <c r="G446" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
+      <c r="A447" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B447" s="0" t="s">
+      <c r="B447" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C447" s="0" t="s">
+      <c r="C447" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D447" s="0" t="s">
+      <c r="D447" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F447" s="0" t="s">
+      <c r="F447" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G447" s="0" t="s">
+      <c r="G447" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+      <c r="A448" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B448" s="0" t="s">
+      <c r="B448" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C448" s="0" t="s">
+      <c r="C448" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D448" s="0" t="s">
+      <c r="D448" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F448" s="0" t="s">
+      <c r="F448" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G448" s="0" t="s">
+      <c r="G448" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+      <c r="A449" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B449" s="0" t="s">
+      <c r="B449" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C449" s="0" t="s">
+      <c r="C449" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D449" s="0" t="s">
+      <c r="D449" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G449" s="0" t="s">
+      <c r="G449" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
+      <c r="A450" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B450" s="0" t="s">
+      <c r="B450" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C450" s="0" t="s">
+      <c r="C450" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D450" s="0" t="s">
+      <c r="D450" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F450" s="0" t="s">
+      <c r="F450" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G450" s="0" t="s">
+      <c r="G450" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
+      <c r="A451" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B451" s="0" t="s">
+      <c r="B451" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C451" s="0" t="s">
+      <c r="C451" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D451" s="0" t="s">
+      <c r="D451" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F451" s="0" t="s">
+      <c r="F451" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G451" s="0" t="s">
+      <c r="G451" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
+      <c r="A452" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B452" s="0" t="s">
+      <c r="B452" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C452" s="0" t="s">
+      <c r="C452" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D452" s="0" t="s">
+      <c r="D452" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F452" s="0" t="s">
+      <c r="F452" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G452" s="0" t="s">
+      <c r="G452" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
+      <c r="A453" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B453" s="0" t="s">
+      <c r="B453" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C453" s="0" t="s">
+      <c r="C453" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D453" s="0" t="s">
+      <c r="D453" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F453" s="0" t="s">
+      <c r="F453" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G453" s="0" t="s">
+      <c r="G453" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
+      <c r="A454" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B454" s="0" t="s">
+      <c r="B454" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C454" s="0" t="s">
+      <c r="C454" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D454" s="0" t="s">
+      <c r="D454" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F454" s="0" t="s">
+      <c r="F454" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G454" s="0" t="s">
+      <c r="G454" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
+      <c r="A455" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B455" s="0" t="s">
+      <c r="B455" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C455" s="0" t="s">
+      <c r="C455" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D455" s="0" t="s">
+      <c r="D455" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F455" s="0" t="s">
+      <c r="F455" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G455" s="0" t="s">
+      <c r="G455" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
+      <c r="A456" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B456" s="0" t="s">
+      <c r="B456" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C456" s="0" t="s">
+      <c r="C456" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D456" s="0" t="s">
+      <c r="D456" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F456" s="0" t="s">
+      <c r="F456" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G456" s="0" t="s">
+      <c r="G456" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
+      <c r="A457" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B457" s="0" t="s">
+      <c r="B457" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C457" s="0" t="s">
+      <c r="C457" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
+      <c r="A458" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B458" s="0" t="s">
+      <c r="B458" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C458" s="0" t="s">
+      <c r="C458" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+      <c r="A459" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B459" s="0" t="s">
+      <c r="B459" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C459" s="0" t="s">
+      <c r="C459" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
+      <c r="A460" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B460" s="0" t="s">
+      <c r="B460" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C460" s="0" t="s">
+      <c r="C460" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+      <c r="A461" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B461" s="0" t="s">
+      <c r="B461" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C461" s="0" t="s">
+      <c r="C461" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
+      <c r="A462" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B462" s="0" t="s">
+      <c r="B462" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C462" s="0" t="s">
+      <c r="C462" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
+      <c r="A463" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B463" s="0" t="s">
+      <c r="B463" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C463" s="0" t="s">
+      <c r="C463" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D463" s="0" t="s">
+      <c r="D463" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F463" s="0" t="s">
+      <c r="F463" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G463" s="0" t="s">
+      <c r="G463" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
+      <c r="A464" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B464" s="0" t="s">
+      <c r="B464" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C464" s="0" t="s">
+      <c r="C464" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
+      <c r="A465" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B465" s="0" t="s">
+      <c r="B465" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C465" s="0" t="s">
+      <c r="C465" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
+      <c r="A466" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B466" s="0" t="s">
+      <c r="B466" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C466" s="0" t="s">
+      <c r="C466" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
+      <c r="A467" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B467" s="0" t="s">
+      <c r="B467" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C467" s="0" t="s">
+      <c r="C467" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D467" s="0" t="s">
+      <c r="D467" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F467" s="0" t="s">
+      <c r="F467" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G467" s="0" t="s">
+      <c r="G467" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
+      <c r="A468" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B468" s="0" t="s">
+      <c r="B468" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C468" s="0" t="s">
+      <c r="C468" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
+      <c r="A469" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B469" s="0" t="s">
+      <c r="B469" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C469" s="0" t="s">
+      <c r="C469" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D469" s="0" t="s">
+      <c r="D469" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F469" s="0" t="s">
+      <c r="F469" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G469" s="0" t="s">
+      <c r="G469" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
+      <c r="A470" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B470" s="0" t="s">
+      <c r="B470" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C470" s="0" t="s">
+      <c r="C470" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
+      <c r="A471" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B471" s="0" t="s">
+      <c r="B471" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C471" s="0" t="s">
+      <c r="C471" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D471" s="0" t="s">
+      <c r="D471" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F471" s="0" t="s">
+      <c r="F471" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G471" s="0" t="s">
+      <c r="G471" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
+      <c r="A472" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B472" s="0" t="s">
+      <c r="B472" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C472" s="0" t="s">
+      <c r="C472" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
+      <c r="A473" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B473" s="0" t="s">
+      <c r="B473" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C473" s="0" t="s">
+      <c r="C473" s="1" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
+      <c r="A474" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B474" s="0" t="s">
+      <c r="B474" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C474" s="0" t="s">
+      <c r="C474" s="1" t="s">
         <v>674</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="713">
   <si>
     <t xml:space="preserve">event</t>
   </si>
@@ -34,128 +34,16 @@
     <t xml:space="preserve">haz_Ab</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">spec</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cluster</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">potlink</t>
-    </r>
+    <t xml:space="preserve">haz_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_potlink</t>
   </si>
   <si>
     <t xml:space="preserve">tremblement de terre</t>
@@ -1278,6 +1166,120 @@
   </si>
   <si>
     <t xml:space="preserve">tempete de vents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILDING ACCIDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINING ACCIDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THUNDERSTORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАЗАР ХӨДЛӨЛТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗУД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЫН ХАЛДВАРТ ӨВЧИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal-based infectious disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мал аж ахуй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Husbandry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мал өвөлжүүлэх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Wintering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МӨНДӨР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЪЕКТЫН ТҮЙМЭР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technological fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЙН ТҮЙМЭР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildfire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОНГОЦНЫ ОСОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЭСРЭЛТ ДЭЛБЭРЭЛТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УСНЫ ОСОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХИМИЙН БОДИСЫН ОСОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХЭЭРИЙН ТҮЙМЭР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХҮЙТЭН БОРОО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cold rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХҮНИЙ ХАЛДВАРТ ӨВЧИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-borne infectious diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХҮЧТЭЙ САЛХИ ШУУРГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦАСНЫ НУРАНГИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сум илэрсэн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bullet detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ҮЕР</t>
   </si>
   <si>
     <t xml:space="preserve">seca</t>
@@ -2190,18 +2192,25 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2238,7 +2247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2247,32 +2256,110 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H474"/>
+  <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="D1:H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E263" activeCellId="0" sqref="E263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="10.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,736 +6424,760 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>36</v>
+      <c r="B259" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>20</v>
+      <c r="B260" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>20</v>
+      <c r="B261" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>15</v>
+        <v>387</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>391</v>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>115</v>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>393</v>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>55</v>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>395</v>
+      <c r="D269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>396</v>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>397</v>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>398</v>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F273" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>400</v>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>50</v>
+        <v>403</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>401</v>
+      <c r="D274" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>402</v>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>403</v>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>404</v>
+        <v>156</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>405</v>
+      <c r="D277" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>113</v>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>407</v>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F282" s="1" t="s">
+      <c r="F284" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G282" s="1" t="s">
+      <c r="G284" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F284" s="1" t="s">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G284" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G285" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>418</v>
+        <v>115</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>13</v>
+        <v>421</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>410</v>
+      <c r="D292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>422</v>
+        <v>90</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>423</v>
+        <v>68</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>425</v>
+        <v>50</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>427</v>
+        <v>109</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>429</v>
+        <v>9</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>430</v>
+        <v>113</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>433</v>
+        <v>128</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>434</v>
+        <v>75</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>26</v>
@@ -7077,30 +7188,30 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>23</v>
@@ -7108,53 +7219,41 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>66</v>
@@ -7168,263 +7267,182 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="D312" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G313" s="1" t="s">
-        <v>13</v>
+        <v>448</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G314" s="1" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>14</v>
+        <v>448</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>13</v>
+        <v>448</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>19</v>
+        <v>448</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G320" s="1" t="s">
-        <v>23</v>
+        <v>448</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>19</v>
+        <v>448</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>23</v>
+        <v>469</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>23</v>
+        <v>469</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>100</v>
+        <v>473</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>23</v>
@@ -7432,61 +7450,61 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>191</v>
+        <v>480</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>23</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>23</v>
@@ -7494,19 +7512,19 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>23</v>
@@ -7514,13 +7532,13 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>272</v>
+        <v>484</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>21</v>
@@ -7534,244 +7552,283 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>15</v>
+        <v>485</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>214</v>
+        <v>487</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>269</v>
+        <v>488</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>265</v>
+        <v>489</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>29</v>
+        <v>490</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="D339" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>23</v>
+        <v>482</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>128</v>
+        <v>499</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>23</v>
+        <v>482</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>474</v>
+        <v>501</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>499</v>
+        <v>100</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>23</v>
@@ -7779,33 +7836,24 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>502</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>13</v>
+        <v>501</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,36 +7861,36 @@
         <v>506</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>507</v>
+        <v>191</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>509</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>23</v>
@@ -7853,16 +7901,16 @@
         <v>510</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>509</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>23</v>
@@ -7873,50 +7921,50 @@
         <v>511</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="D355" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>72</v>
+        <v>515</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>17</v>
@@ -7930,87 +7978,69 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>23</v>
+        <v>512</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>517</v>
+        <v>265</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>23</v>
+        <v>512</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G361" s="1" t="s">
         <v>23</v>
@@ -8018,232 +8048,205 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>29</v>
+        <v>524</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>70</v>
+        <v>526</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G364" s="1" t="s">
-        <v>23</v>
+        <v>512</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G365" s="1" t="s">
-        <v>19</v>
+        <v>512</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>72</v>
+        <v>530</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>19</v>
+        <v>512</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>36</v>
+        <v>532</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G367" s="1" t="s">
-        <v>23</v>
+        <v>512</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>527</v>
+        <v>128</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>50</v>
+        <v>535</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>29</v>
+        <v>537</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>15</v>
+        <v>540</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>136</v>
+        <v>543</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G372" s="1" t="s">
-        <v>23</v>
+        <v>541</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>9</v>
+        <v>545</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H373" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>23</v>
@@ -8251,91 +8254,130 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>536</v>
+        <v>65</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>527</v>
+        <v>153</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>540</v>
+        <v>97</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G379" s="1" t="s">
-        <v>31</v>
+        <v>547</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>52</v>
+        <v>555</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>23</v>
@@ -8343,123 +8385,144 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>545</v>
+        <v>100</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>552</v>
+        <v>72</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>23</v>
@@ -8467,87 +8530,78 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G390" s="1" t="s">
-        <v>31</v>
+        <v>547</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>23</v>
@@ -8555,149 +8609,137 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>561</v>
+        <v>9</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>563</v>
+        <v>52</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>566</v>
+        <v>75</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>19</v>
+        <v>547</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>9</v>
+        <v>574</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G398" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>14</v>
+        <v>547</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>214</v>
+        <v>565</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>19</v>
+        <v>547</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G403" s="1" t="s">
         <v>23</v>
@@ -8705,61 +8747,52 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>65</v>
+        <v>585</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>13</v>
+        <v>586</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="G407" s="1" t="s">
         <v>13</v>
@@ -8767,39 +8800,39 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>23</v>
@@ -8807,39 +8840,30 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G410" s="1" t="s">
-        <v>23</v>
+        <v>586</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G411" s="1" t="s">
         <v>23</v>
@@ -8847,59 +8871,47 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>585</v>
+        <v>29</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G413" s="1" t="s">
-        <v>23</v>
+        <v>592</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>588</v>
+        <v>136</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>23</v>
@@ -8907,19 +8919,19 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G415" s="1" t="s">
         <v>23</v>
@@ -8927,237 +8939,291 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>564</v>
+        <v>592</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C417" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="D417" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>598</v>
+        <v>9</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>600</v>
+        <v>214</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>75</v>
+        <v>609</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>605</v>
+        <v>15</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>608</v>
+        <v>231</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>614</v>
+        <v>119</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>616</v>
+        <v>70</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G432" s="1" t="s">
         <v>23</v>
@@ -9165,72 +9231,99 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>251</v>
+        <v>623</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>502</v>
+        <v>626</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G437" s="1" t="s">
         <v>23</v>
@@ -9238,59 +9331,47 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G438" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>441</v>
+        <v>632</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G440" s="1" t="s">
         <v>23</v>
@@ -9298,172 +9379,112 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>74</v>
+        <v>634</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G441" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>191</v>
+        <v>636</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G442" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>70</v>
+        <v>638</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G443" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>636</v>
+        <v>75</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G446" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G447" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>462</v>
+        <v>646</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G448" s="1" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>113</v>
+        <v>648</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G449" s="1" t="s">
-        <v>31</v>
+        <v>602</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>258</v>
+        <v>650</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>25</v>
@@ -9477,19 +9498,19 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>70</v>
+        <v>652</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G451" s="1" t="s">
         <v>23</v>
@@ -9497,19 +9518,19 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G452" s="1" t="s">
         <v>23</v>
@@ -9517,165 +9538,183 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>23</v>
+        <v>655</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>336</v>
+        <v>656</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G455" s="1" t="s">
-        <v>23</v>
+        <v>658</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G456" s="1" t="s">
-        <v>23</v>
+        <v>658</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>75</v>
+        <v>661</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>257</v>
+        <v>540</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>639</v>
+        <v>658</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>655</v>
+        <v>65</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>657</v>
+        <v>479</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G463" s="1" t="s">
         <v>23</v>
@@ -9683,156 +9722,521 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>660</v>
+        <v>191</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>662</v>
+        <v>70</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B466" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>336</v>
+        <v>674</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G467" s="1" t="s">
-        <v>13</v>
+        <v>664</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>639</v>
+        <v>664</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>639</v>
+        <v>677</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>670</v>
+        <v>113</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>639</v>
+        <v>677</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>639</v>
+        <v>677</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>673</v>
+        <v>335</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
@@ -34,128 +34,16 @@
     <t xml:space="preserve">haz_Ab</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">spec</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cluster</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">potlink</t>
-    </r>
+    <t xml:space="preserve">haz_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_potlink</t>
   </si>
   <si>
     <t xml:space="preserve">tremblement de terre</t>
@@ -167,15 +55,15 @@
     <t xml:space="preserve">EQ</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypegeohaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazgeoseis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH0001,GH0002</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haztypegeohaz</t>
-  </si>
-  <si>
     <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
   </si>
   <si>
@@ -188,22 +76,22 @@
     <t xml:space="preserve">WF</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypeenviron</t>
+  </si>
+  <si>
     <t xml:space="preserve">hazenvenvdeg</t>
   </si>
   <si>
-    <t xml:space="preserve">haztypeenviron</t>
-  </si>
-  <si>
     <t xml:space="preserve">flood</t>
   </si>
   <si>
     <t xml:space="preserve">FL</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypehydromet</t>
+  </si>
+  <si>
     <t xml:space="preserve">hazhmflood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haztypehydromet</t>
   </si>
   <si>
     <t xml:space="preserve">rains</t>
@@ -2166,7 +2054,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2188,12 +2076,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2267,10 +2149,10 @@
   <dimension ref="A1:H474"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="D1:H1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.53"/>
   </cols>
@@ -2301,7 +2183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2324,7 +2206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2337,14 +2219,14 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2357,14 +2239,14 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2377,14 +2259,14 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2397,14 +2279,14 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2417,11 +2299,11 @@
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2434,14 +2316,14 @@
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2465,14 +2347,14 @@
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -2485,14 +2367,14 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2505,14 +2387,14 @@
       <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2525,14 +2407,14 @@
       <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2545,14 +2427,14 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -2563,7 +2445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2574,7 +2456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2587,14 +2469,14 @@
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2607,14 +2489,14 @@
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2625,7 +2507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2664,14 +2546,14 @@
       <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -2684,14 +2566,14 @@
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2704,14 +2586,14 @@
       <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -2722,7 +2604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2735,14 +2617,14 @@
       <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -2755,14 +2637,14 @@
       <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2775,14 +2657,14 @@
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2795,14 +2677,14 @@
       <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2815,14 +2697,14 @@
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2835,14 +2717,14 @@
       <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2853,7 +2735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2864,7 +2746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2877,14 +2759,14 @@
       <c r="D33" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -2895,7 +2777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2908,14 +2790,14 @@
       <c r="D35" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -2926,7 +2808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
@@ -2939,14 +2821,14 @@
       <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -2959,14 +2841,14 @@
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -2979,14 +2861,14 @@
       <c r="D39" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -2999,14 +2881,14 @@
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -3019,14 +2901,14 @@
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -3039,14 +2921,14 @@
       <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -3057,7 +2939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -3070,14 +2952,14 @@
       <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -3090,11 +2972,11 @@
       <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -3105,7 +2987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -3116,7 +2998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -3129,14 +3011,14 @@
       <c r="D48" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -3149,11 +3031,11 @@
       <c r="D49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3164,7 +3046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -3175,7 +3057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -3201,7 +3083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
@@ -3214,14 +3096,14 @@
       <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -3232,7 +3114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3243,7 +3125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3254,7 +3136,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3267,11 +3149,11 @@
       <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3282,7 +3164,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3293,7 +3175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3306,14 +3188,14 @@
       <c r="D60" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -3326,14 +3208,14 @@
       <c r="D61" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3344,7 +3226,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3357,14 +3239,14 @@
       <c r="D63" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
@@ -3375,7 +3257,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
@@ -3388,14 +3270,14 @@
       <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
@@ -3406,7 +3288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
@@ -3419,14 +3301,14 @@
       <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
@@ -3437,7 +3319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -3448,7 +3330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
@@ -3461,14 +3343,14 @@
       <c r="D70" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -3481,14 +3363,14 @@
       <c r="D71" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
@@ -3501,14 +3383,14 @@
       <c r="D72" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -3519,7 +3401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
@@ -3532,14 +3414,14 @@
       <c r="D74" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -3552,14 +3434,14 @@
       <c r="D75" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -3572,14 +3454,14 @@
       <c r="D76" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3590,7 +3472,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -3603,14 +3485,14 @@
       <c r="D78" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -3621,7 +3503,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>151</v>
       </c>
@@ -3632,7 +3514,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>152</v>
       </c>
@@ -3645,11 +3527,11 @@
       <c r="D81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -3662,14 +3544,14 @@
       <c r="D82" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
@@ -3680,7 +3562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
@@ -3693,14 +3575,14 @@
       <c r="D84" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -3711,7 +3593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
@@ -3724,14 +3606,14 @@
       <c r="D86" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -3742,7 +3624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>155</v>
       </c>
@@ -3755,14 +3637,14 @@
       <c r="D88" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>126</v>
       </c>
@@ -3773,7 +3655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>157</v>
       </c>
@@ -3786,14 +3668,14 @@
       <c r="D90" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E90" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>158</v>
       </c>
@@ -3804,7 +3686,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -3817,14 +3699,14 @@
       <c r="D92" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>162</v>
       </c>
@@ -3835,7 +3717,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>164</v>
       </c>
@@ -3848,14 +3730,14 @@
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>166</v>
       </c>
@@ -3866,7 +3748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>168</v>
       </c>
@@ -3877,7 +3759,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>170</v>
       </c>
@@ -3890,14 +3772,14 @@
       <c r="D97" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>172</v>
       </c>
@@ -3910,11 +3792,11 @@
       <c r="D98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>173</v>
       </c>
@@ -3925,7 +3807,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>174</v>
       </c>
@@ -3938,14 +3820,14 @@
       <c r="D100" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
@@ -3956,7 +3838,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
@@ -3969,14 +3851,14 @@
       <c r="D102" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
@@ -3989,14 +3871,14 @@
       <c r="D103" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E103" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
@@ -4009,14 +3891,14 @@
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E104" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
@@ -4029,14 +3911,14 @@
       <c r="D105" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E105" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>181</v>
       </c>
@@ -4049,14 +3931,14 @@
       <c r="D106" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
@@ -4069,14 +3951,14 @@
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E107" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
@@ -4087,7 +3969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>184</v>
       </c>
@@ -4098,7 +3980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>186</v>
       </c>
@@ -4109,7 +3991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>187</v>
       </c>
@@ -4120,7 +4002,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>190</v>
       </c>
@@ -4133,14 +4015,14 @@
       <c r="D112" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>193</v>
       </c>
@@ -4151,7 +4033,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>195</v>
       </c>
@@ -4164,14 +4046,14 @@
       <c r="D114" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>197</v>
       </c>
@@ -4184,11 +4066,11 @@
       <c r="D115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>198</v>
       </c>
@@ -4201,14 +4083,14 @@
       <c r="D116" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>199</v>
       </c>
@@ -4221,14 +4103,14 @@
       <c r="D117" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E117" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>201</v>
       </c>
@@ -4239,7 +4121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
@@ -4252,14 +4134,14 @@
       <c r="D119" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E119" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F119" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>205</v>
       </c>
@@ -4270,7 +4152,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>207</v>
       </c>
@@ -4281,7 +4163,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>208</v>
       </c>
@@ -4294,14 +4176,14 @@
       <c r="D122" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E122" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>209</v>
       </c>
@@ -4314,11 +4196,11 @@
       <c r="D123" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>210</v>
       </c>
@@ -4331,14 +4213,14 @@
       <c r="D124" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E124" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>213</v>
       </c>
@@ -4349,7 +4231,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>215</v>
       </c>
@@ -4360,7 +4242,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>217</v>
       </c>
@@ -4371,7 +4253,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>218</v>
       </c>
@@ -4382,7 +4264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>220</v>
       </c>
@@ -4393,7 +4275,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>222</v>
       </c>
@@ -4404,7 +4286,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>224</v>
       </c>
@@ -4415,7 +4297,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>226</v>
       </c>
@@ -4426,7 +4308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>228</v>
       </c>
@@ -4437,7 +4319,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>230</v>
       </c>
@@ -4448,7 +4330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>232</v>
       </c>
@@ -4459,7 +4341,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>234</v>
       </c>
@@ -4470,7 +4352,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>236</v>
       </c>
@@ -4481,7 +4363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>238</v>
       </c>
@@ -4492,7 +4374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>240</v>
       </c>
@@ -4503,7 +4385,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>242</v>
       </c>
@@ -4516,14 +4398,14 @@
       <c r="D140" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E140" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>243</v>
       </c>
@@ -4536,14 +4418,14 @@
       <c r="D141" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E141" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F141" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>244</v>
       </c>
@@ -4556,14 +4438,14 @@
       <c r="D142" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E142" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F142" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>246</v>
       </c>
@@ -4574,7 +4456,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>248</v>
       </c>
@@ -4585,7 +4467,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>250</v>
       </c>
@@ -4596,7 +4478,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>252</v>
       </c>
@@ -4607,7 +4489,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>254</v>
       </c>
@@ -4620,14 +4502,14 @@
       <c r="D147" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E147" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>90</v>
       </c>
@@ -4640,14 +4522,14 @@
       <c r="D148" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F148" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>256</v>
       </c>
@@ -4660,14 +4542,14 @@
       <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E149" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F149" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>257</v>
       </c>
@@ -4678,7 +4560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>258</v>
       </c>
@@ -4691,14 +4573,14 @@
       <c r="D151" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E151" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F151" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>115</v>
       </c>
@@ -4709,7 +4591,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>259</v>
       </c>
@@ -4720,7 +4602,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>260</v>
       </c>
@@ -4731,7 +4613,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>261</v>
       </c>
@@ -4742,7 +4624,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>262</v>
       </c>
@@ -4755,14 +4637,14 @@
       <c r="D156" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E156" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F156" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>263</v>
       </c>
@@ -4775,11 +4657,11 @@
       <c r="D157" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>264</v>
       </c>
@@ -4790,7 +4672,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>267</v>
       </c>
@@ -4803,14 +4685,14 @@
       <c r="D159" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E159" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>269</v>
       </c>
@@ -4821,7 +4703,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>113</v>
       </c>
@@ -4834,11 +4716,11 @@
       <c r="D161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>270</v>
       </c>
@@ -4851,14 +4733,14 @@
       <c r="D162" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E162" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F162" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>272</v>
       </c>
@@ -4871,14 +4753,14 @@
       <c r="D163" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E163" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F163" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>274</v>
       </c>
@@ -4891,14 +4773,14 @@
       <c r="D164" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E164" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>196</v>
       </c>
@@ -4911,14 +4793,14 @@
       <c r="D165" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E165" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>276</v>
       </c>
@@ -4931,14 +4813,14 @@
       <c r="D166" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E166" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F166" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>278</v>
       </c>
@@ -4949,7 +4831,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>279</v>
       </c>
@@ -4962,14 +4844,14 @@
       <c r="D168" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E168" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>280</v>
       </c>
@@ -4982,14 +4864,14 @@
       <c r="D169" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E169" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>282</v>
       </c>
@@ -5002,14 +4884,14 @@
       <c r="D170" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E170" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>283</v>
       </c>
@@ -5020,7 +4902,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>285</v>
       </c>
@@ -5033,14 +4915,14 @@
       <c r="D172" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E172" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F172" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>286</v>
       </c>
@@ -5051,7 +4933,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>287</v>
       </c>
@@ -5077,7 +4959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>288</v>
       </c>
@@ -5090,14 +4972,14 @@
       <c r="D175" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E175" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>289</v>
       </c>
@@ -5110,14 +4992,14 @@
       <c r="D176" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E176" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F176" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>290</v>
       </c>
@@ -5130,14 +5012,14 @@
       <c r="D177" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E177" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F177" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>291</v>
       </c>
@@ -5150,11 +5032,11 @@
       <c r="D178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>292</v>
       </c>
@@ -5167,14 +5049,14 @@
       <c r="D179" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E179" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F179" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>293</v>
       </c>
@@ -5187,14 +5069,14 @@
       <c r="D180" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E180" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F180" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>294</v>
       </c>
@@ -5207,14 +5089,14 @@
       <c r="D181" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E181" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F181" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>295</v>
       </c>
@@ -5227,14 +5109,14 @@
       <c r="D182" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E182" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F182" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>296</v>
       </c>
@@ -5245,7 +5127,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>298</v>
       </c>
@@ -5256,7 +5138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>300</v>
       </c>
@@ -5267,7 +5149,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>206</v>
       </c>
@@ -5278,7 +5160,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>302</v>
       </c>
@@ -5289,7 +5171,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>303</v>
       </c>
@@ -5300,7 +5182,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>52</v>
       </c>
@@ -5313,14 +5195,14 @@
       <c r="D189" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E189" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>304</v>
       </c>
@@ -5334,7 +5216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>305</v>
       </c>
@@ -5345,7 +5227,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>306</v>
       </c>
@@ -5356,7 +5238,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>307</v>
       </c>
@@ -5367,7 +5249,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>308</v>
       </c>
@@ -5380,14 +5262,14 @@
       <c r="D194" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E194" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F194" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>310</v>
       </c>
@@ -5400,14 +5282,14 @@
       <c r="D195" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E195" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>156</v>
       </c>
@@ -5420,14 +5302,14 @@
       <c r="D196" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E196" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F196" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>311</v>
       </c>
@@ -5440,14 +5322,14 @@
       <c r="D197" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E197" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F197" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>312</v>
       </c>
@@ -5458,7 +5340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>191</v>
       </c>
@@ -5471,14 +5353,14 @@
       <c r="D199" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E199" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F199" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>313</v>
       </c>
@@ -5489,7 +5371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>314</v>
       </c>
@@ -5500,7 +5382,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>315</v>
       </c>
@@ -5513,14 +5395,14 @@
       <c r="D202" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E202" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F202" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>316</v>
       </c>
@@ -5533,11 +5415,11 @@
       <c r="D203" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
@@ -5548,7 +5430,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
@@ -5561,14 +5443,14 @@
       <c r="D205" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E205" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F205" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
@@ -5579,7 +5461,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>322</v>
       </c>
@@ -5592,14 +5474,14 @@
       <c r="D207" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E207" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F207" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>323</v>
       </c>
@@ -5612,14 +5494,14 @@
       <c r="D208" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E208" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F208" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>325</v>
       </c>
@@ -5632,14 +5514,14 @@
       <c r="D209" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E209" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>326</v>
       </c>
@@ -5652,11 +5534,11 @@
       <c r="D210" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>327</v>
       </c>
@@ -5669,14 +5551,14 @@
       <c r="D211" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E211" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>119</v>
       </c>
@@ -5689,14 +5571,14 @@
       <c r="D212" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E212" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F212" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>328</v>
       </c>
@@ -5709,14 +5591,14 @@
       <c r="D213" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E213" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F213" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>167</v>
       </c>
@@ -5727,7 +5609,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>329</v>
       </c>
@@ -5740,14 +5622,14 @@
       <c r="D215" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E215" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F215" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>281</v>
       </c>
@@ -5760,14 +5642,14 @@
       <c r="D216" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E216" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F216" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>330</v>
       </c>
@@ -5781,7 +5663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>331</v>
       </c>
@@ -5792,7 +5674,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>332</v>
       </c>
@@ -5805,14 +5687,14 @@
       <c r="D219" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E219" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F219" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>333</v>
       </c>
@@ -5825,14 +5707,14 @@
       <c r="D220" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E220" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F220" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>334</v>
       </c>
@@ -5845,14 +5727,14 @@
       <c r="D221" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E221" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F221" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>335</v>
       </c>
@@ -5865,14 +5747,14 @@
       <c r="D222" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E222" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F222" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>336</v>
       </c>
@@ -5885,14 +5767,14 @@
       <c r="D223" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E223" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F223" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>194</v>
       </c>
@@ -5903,7 +5785,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>338</v>
       </c>
@@ -5914,7 +5796,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>339</v>
       </c>
@@ -5925,7 +5807,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>340</v>
       </c>
@@ -5936,7 +5818,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>341</v>
       </c>
@@ -5949,14 +5831,14 @@
       <c r="D228" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E228" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F228" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>342</v>
       </c>
@@ -5969,14 +5851,14 @@
       <c r="D229" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E229" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G229" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>343</v>
       </c>
@@ -5987,7 +5869,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>344</v>
       </c>
@@ -5998,7 +5880,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>345</v>
       </c>
@@ -6011,11 +5893,11 @@
       <c r="D232" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>347</v>
       </c>
@@ -6026,7 +5908,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>349</v>
       </c>
@@ -6037,7 +5919,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>350</v>
       </c>
@@ -6048,7 +5930,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>351</v>
       </c>
@@ -6059,7 +5941,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>352</v>
       </c>
@@ -6070,7 +5952,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>353</v>
       </c>
@@ -6081,7 +5963,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>354</v>
       </c>
@@ -6092,7 +5974,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>355</v>
       </c>
@@ -6103,7 +5985,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>357</v>
       </c>
@@ -6114,7 +5996,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>358</v>
       </c>
@@ -6125,7 +6007,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>359</v>
       </c>
@@ -6138,14 +6020,14 @@
       <c r="D243" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E243" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F243" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>361</v>
       </c>
@@ -6158,14 +6040,14 @@
       <c r="D244" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E244" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>363</v>
       </c>
@@ -6176,7 +6058,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>364</v>
       </c>
@@ -6187,7 +6069,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>366</v>
       </c>
@@ -6198,7 +6080,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>367</v>
       </c>
@@ -6209,7 +6091,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>135</v>
       </c>
@@ -6220,7 +6102,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>370</v>
       </c>
@@ -6233,14 +6115,14 @@
       <c r="D250" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E250" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F250" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>371</v>
       </c>
@@ -6251,7 +6133,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>373</v>
       </c>
@@ -6262,7 +6144,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>374</v>
       </c>
@@ -6273,7 +6155,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>375</v>
       </c>
@@ -6284,7 +6166,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
         <v>376</v>
       </c>
@@ -6295,7 +6177,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>378</v>
       </c>
@@ -6306,7 +6188,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>379</v>
       </c>
@@ -6317,7 +6199,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>381</v>
       </c>
@@ -6330,14 +6212,14 @@
       <c r="D258" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E258" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F258" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G258" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>382</v>
       </c>
@@ -6350,14 +6232,14 @@
       <c r="D259" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E259" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F259" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>384</v>
       </c>
@@ -6370,14 +6252,14 @@
       <c r="D260" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E260" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G260" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>385</v>
       </c>
@@ -6390,14 +6272,14 @@
       <c r="D261" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E261" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G261" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>386</v>
       </c>
@@ -6410,14 +6292,14 @@
       <c r="D262" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E262" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F262" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G262" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>387</v>
       </c>
@@ -6430,14 +6312,14 @@
       <c r="D263" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E263" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F263" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G263" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>388</v>
       </c>
@@ -6450,14 +6332,14 @@
       <c r="D264" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E264" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F264" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G264" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>389</v>
       </c>
@@ -6470,14 +6352,14 @@
       <c r="D265" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E265" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>390</v>
       </c>
@@ -6488,7 +6370,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>392</v>
       </c>
@@ -6499,7 +6381,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>393</v>
       </c>
@@ -6512,14 +6394,14 @@
       <c r="D268" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E268" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F268" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G268" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>394</v>
       </c>
@@ -6530,7 +6412,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>395</v>
       </c>
@@ -6543,14 +6425,14 @@
       <c r="D270" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E270" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G270" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>396</v>
       </c>
@@ -6563,14 +6445,14 @@
       <c r="D271" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E271" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F271" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G271" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>397</v>
       </c>
@@ -6583,14 +6465,14 @@
       <c r="D272" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E272" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F272" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G272" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>398</v>
       </c>
@@ -6604,7 +6486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>400</v>
       </c>
@@ -6615,7 +6497,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>401</v>
       </c>
@@ -6628,14 +6510,14 @@
       <c r="D275" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E275" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F275" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G275" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>402</v>
       </c>
@@ -6646,7 +6528,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>403</v>
       </c>
@@ -6657,7 +6539,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>405</v>
       </c>
@@ -6683,7 +6565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>406</v>
       </c>
@@ -6696,11 +6578,11 @@
       <c r="D279" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>407</v>
       </c>
@@ -6713,14 +6595,14 @@
       <c r="D280" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E280" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F280" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G280" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>408</v>
       </c>
@@ -6731,7 +6613,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>409</v>
       </c>
@@ -6744,14 +6626,14 @@
       <c r="D282" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E282" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F282" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G282" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>411</v>
       </c>
@@ -6762,7 +6644,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>412</v>
       </c>
@@ -6775,14 +6657,14 @@
       <c r="D284" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E284" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F284" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G284" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>414</v>
       </c>
@@ -6793,7 +6675,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>74</v>
       </c>
@@ -6806,14 +6688,14 @@
       <c r="D286" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G286" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>416</v>
       </c>
@@ -6824,7 +6706,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>417</v>
       </c>
@@ -6837,11 +6719,11 @@
       <c r="D288" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>418</v>
       </c>
@@ -6854,14 +6736,14 @@
       <c r="D289" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E289" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F289" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G289" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>419</v>
       </c>
@@ -6874,14 +6756,14 @@
       <c r="D290" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E290" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F290" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G290" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>420</v>
       </c>
@@ -6892,7 +6774,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>421</v>
       </c>
@@ -6903,7 +6785,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>422</v>
       </c>
@@ -6914,7 +6796,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>423</v>
       </c>
@@ -6925,7 +6807,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>424</v>
       </c>
@@ -6936,7 +6818,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>425</v>
       </c>
@@ -6947,7 +6829,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>426</v>
       </c>
@@ -6958,7 +6840,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>427</v>
       </c>
@@ -6969,7 +6851,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>428</v>
       </c>
@@ -6980,7 +6862,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>429</v>
       </c>
@@ -6991,7 +6873,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>430</v>
       </c>
@@ -7002,7 +6884,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>432</v>
       </c>
@@ -7013,7 +6895,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>434</v>
       </c>
@@ -7024,7 +6906,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>435</v>
       </c>
@@ -7037,14 +6919,14 @@
       <c r="D304" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E304" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F304" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G304" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>438</v>
       </c>
@@ -7055,7 +6937,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>441</v>
       </c>
@@ -7068,14 +6950,14 @@
       <c r="D306" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E306" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F306" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G306" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>442</v>
       </c>
@@ -7086,7 +6968,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>443</v>
       </c>
@@ -7099,14 +6981,14 @@
       <c r="D308" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E308" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F308" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G308" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>445</v>
       </c>
@@ -7119,14 +7001,14 @@
       <c r="D309" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E309" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F309" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G309" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>446</v>
       </c>
@@ -7139,14 +7021,14 @@
       <c r="D310" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E310" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G310" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>447</v>
       </c>
@@ -7159,14 +7041,14 @@
       <c r="D311" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E311" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F311" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G311" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>448</v>
       </c>
@@ -7179,11 +7061,11 @@
       <c r="D312" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>449</v>
       </c>
@@ -7196,14 +7078,14 @@
       <c r="D313" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E313" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F313" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G313" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>450</v>
       </c>
@@ -7216,14 +7098,14 @@
       <c r="D314" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E314" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F314" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G314" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>451</v>
       </c>
@@ -7234,7 +7116,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>452</v>
       </c>
@@ -7260,7 +7142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>453</v>
       </c>
@@ -7273,14 +7155,14 @@
       <c r="D317" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E317" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F317" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G317" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>454</v>
       </c>
@@ -7291,7 +7173,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>455</v>
       </c>
@@ -7304,14 +7186,14 @@
       <c r="D319" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E319" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F319" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G319" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>457</v>
       </c>
@@ -7324,14 +7206,14 @@
       <c r="D320" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E320" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F320" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G320" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>458</v>
       </c>
@@ -7342,7 +7224,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>459</v>
       </c>
@@ -7355,14 +7237,14 @@
       <c r="D322" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E322" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F322" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G322" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>460</v>
       </c>
@@ -7375,14 +7257,14 @@
       <c r="D323" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E323" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F323" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G323" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>461</v>
       </c>
@@ -7393,7 +7275,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>462</v>
       </c>
@@ -7406,14 +7288,14 @@
       <c r="D325" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E325" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F325" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G325" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>100</v>
       </c>
@@ -7426,11 +7308,11 @@
       <c r="D326" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G326" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E326" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>464</v>
       </c>
@@ -7441,7 +7323,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>465</v>
       </c>
@@ -7452,7 +7334,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>468</v>
       </c>
@@ -7465,14 +7347,14 @@
       <c r="D329" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E329" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F329" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G329" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>469</v>
       </c>
@@ -7485,14 +7367,14 @@
       <c r="D330" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E330" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F330" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G330" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>472</v>
       </c>
@@ -7505,14 +7387,14 @@
       <c r="D331" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E331" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F331" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G331" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>473</v>
       </c>
@@ -7525,14 +7407,14 @@
       <c r="D332" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E332" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F332" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G332" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>475</v>
       </c>
@@ -7545,14 +7427,14 @@
       <c r="D333" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E333" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F333" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G333" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>476</v>
       </c>
@@ -7565,14 +7447,14 @@
       <c r="D334" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E334" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F334" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G334" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>478</v>
       </c>
@@ -7583,7 +7465,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>479</v>
       </c>
@@ -7594,7 +7476,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>480</v>
       </c>
@@ -7605,7 +7487,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>481</v>
       </c>
@@ -7618,11 +7500,11 @@
       <c r="D338" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G338" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>482</v>
       </c>
@@ -7635,14 +7517,14 @@
       <c r="D339" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E339" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F339" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G339" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>483</v>
       </c>
@@ -7655,14 +7537,14 @@
       <c r="D340" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E340" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F340" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G340" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>485</v>
       </c>
@@ -7675,14 +7557,14 @@
       <c r="D341" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E341" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F341" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G341" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>487</v>
       </c>
@@ -7693,7 +7575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>489</v>
       </c>
@@ -7704,7 +7586,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>491</v>
       </c>
@@ -7715,7 +7597,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>493</v>
       </c>
@@ -7726,7 +7608,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>495</v>
       </c>
@@ -7739,14 +7621,14 @@
       <c r="D346" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E346" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F346" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G346" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>496</v>
       </c>
@@ -7757,7 +7639,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>498</v>
       </c>
@@ -7770,14 +7652,14 @@
       <c r="D348" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E348" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F348" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G348" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>501</v>
       </c>
@@ -7790,14 +7672,14 @@
       <c r="D349" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E349" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F349" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>504</v>
       </c>
@@ -7808,7 +7690,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>506</v>
       </c>
@@ -7821,14 +7703,14 @@
       <c r="D351" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E351" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F351" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G351" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>508</v>
       </c>
@@ -7841,14 +7723,14 @@
       <c r="D352" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E352" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F352" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>510</v>
       </c>
@@ -7861,14 +7743,14 @@
       <c r="D353" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E353" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F353" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G353" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>511</v>
       </c>
@@ -7881,14 +7763,14 @@
       <c r="D354" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E354" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F354" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G354" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>512</v>
       </c>
@@ -7901,14 +7783,14 @@
       <c r="D355" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E355" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F355" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G355" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>513</v>
       </c>
@@ -7921,14 +7803,14 @@
       <c r="D356" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E356" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F356" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G356" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>514</v>
       </c>
@@ -7939,7 +7821,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>515</v>
       </c>
@@ -7952,14 +7834,14 @@
       <c r="D358" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E358" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F358" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G358" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>516</v>
       </c>
@@ -7972,14 +7854,14 @@
       <c r="D359" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E359" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F359" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G359" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>518</v>
       </c>
@@ -7992,14 +7874,14 @@
       <c r="D360" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E360" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F360" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G360" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>519</v>
       </c>
@@ -8012,11 +7894,11 @@
       <c r="D361" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E361" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>520</v>
       </c>
@@ -8027,7 +7909,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>521</v>
       </c>
@@ -8040,11 +7922,11 @@
       <c r="D363" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G363" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>522</v>
       </c>
@@ -8057,14 +7939,14 @@
       <c r="D364" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E364" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F364" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G364" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>523</v>
       </c>
@@ -8077,14 +7959,14 @@
       <c r="D365" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E365" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G365" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>524</v>
       </c>
@@ -8097,14 +7979,14 @@
       <c r="D366" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E366" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G366" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>525</v>
       </c>
@@ -8117,14 +7999,14 @@
       <c r="D367" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E367" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F367" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G367" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>526</v>
       </c>
@@ -8135,7 +8017,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>528</v>
       </c>
@@ -8146,7 +8028,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>529</v>
       </c>
@@ -8159,11 +8041,11 @@
       <c r="D370" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>530</v>
       </c>
@@ -8176,14 +8058,14 @@
       <c r="D371" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E371" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F371" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G371" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>531</v>
       </c>
@@ -8196,14 +8078,14 @@
       <c r="D372" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E372" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F372" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G372" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>532</v>
       </c>
@@ -8229,7 +8111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>533</v>
       </c>
@@ -8242,14 +8124,14 @@
       <c r="D374" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E374" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F374" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G374" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>534</v>
       </c>
@@ -8260,7 +8142,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>535</v>
       </c>
@@ -8271,7 +8153,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>537</v>
       </c>
@@ -8282,7 +8164,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>538</v>
       </c>
@@ -8293,7 +8175,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>539</v>
       </c>
@@ -8306,11 +8188,11 @@
       <c r="D379" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G379" s="1" t="s">
+      <c r="E379" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>541</v>
       </c>
@@ -8321,7 +8203,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>542</v>
       </c>
@@ -8334,14 +8216,14 @@
       <c r="D381" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E381" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F381" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G381" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>543</v>
       </c>
@@ -8352,7 +8234,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>544</v>
       </c>
@@ -8363,7 +8245,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>546</v>
       </c>
@@ -8374,7 +8256,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>549</v>
       </c>
@@ -8387,14 +8269,14 @@
       <c r="D385" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E385" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F385" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G385" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>550</v>
       </c>
@@ -8407,14 +8289,14 @@
       <c r="D386" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E386" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F386" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G386" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>551</v>
       </c>
@@ -8427,14 +8309,14 @@
       <c r="D387" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E387" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F387" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G387" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>552</v>
       </c>
@@ -8445,7 +8327,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>553</v>
       </c>
@@ -8458,14 +8340,14 @@
       <c r="D389" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E389" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F389" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G389" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>555</v>
       </c>
@@ -8478,11 +8360,11 @@
       <c r="D390" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G390" s="1" t="s">
+      <c r="E390" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>556</v>
       </c>
@@ -8493,7 +8375,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>557</v>
       </c>
@@ -8506,14 +8388,14 @@
       <c r="D392" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E392" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F392" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G392" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>558</v>
       </c>
@@ -8526,14 +8408,14 @@
       <c r="D393" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E393" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F393" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G393" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>559</v>
       </c>
@@ -8546,14 +8428,14 @@
       <c r="D394" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E394" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F394" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G394" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>560</v>
       </c>
@@ -8566,14 +8448,14 @@
       <c r="D395" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E395" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G395" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>562</v>
       </c>
@@ -8584,7 +8466,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>565</v>
       </c>
@@ -8597,14 +8479,14 @@
       <c r="D397" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E397" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G397" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>567</v>
       </c>
@@ -8630,7 +8512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>568</v>
       </c>
@@ -8641,7 +8523,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>569</v>
       </c>
@@ -8652,7 +8534,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>570</v>
       </c>
@@ -8663,7 +8545,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>572</v>
       </c>
@@ -8676,14 +8558,14 @@
       <c r="D402" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E402" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F402" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G402" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>573</v>
       </c>
@@ -8696,14 +8578,14 @@
       <c r="D403" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E403" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F403" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G403" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>574</v>
       </c>
@@ -8714,7 +8596,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>575</v>
       </c>
@@ -8725,7 +8607,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>577</v>
       </c>
@@ -8738,14 +8620,14 @@
       <c r="D406" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E406" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F406" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G406" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>578</v>
       </c>
@@ -8758,14 +8640,14 @@
       <c r="D407" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E407" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F407" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G407" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>579</v>
       </c>
@@ -8778,14 +8660,14 @@
       <c r="D408" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E408" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F408" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G408" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>580</v>
       </c>
@@ -8798,14 +8680,14 @@
       <c r="D409" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E409" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F409" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G409" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>581</v>
       </c>
@@ -8818,14 +8700,14 @@
       <c r="D410" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E410" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F410" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G410" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>583</v>
       </c>
@@ -8838,14 +8720,14 @@
       <c r="D411" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E411" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F411" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G411" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>584</v>
       </c>
@@ -8858,14 +8740,14 @@
       <c r="D412" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E412" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F412" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G412" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>586</v>
       </c>
@@ -8878,14 +8760,14 @@
       <c r="D413" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E413" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F413" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G413" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>587</v>
       </c>
@@ -8898,14 +8780,14 @@
       <c r="D414" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E414" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F414" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G414" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>589</v>
       </c>
@@ -8918,14 +8800,14 @@
       <c r="D415" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E415" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F415" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G415" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>590</v>
       </c>
@@ -8936,7 +8818,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>591</v>
       </c>
@@ -8949,11 +8831,11 @@
       <c r="D417" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G417" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E417" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>593</v>
       </c>
@@ -8966,14 +8848,14 @@
       <c r="D418" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E418" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F418" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G418" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>595</v>
       </c>
@@ -8984,7 +8866,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>597</v>
       </c>
@@ -8995,7 +8877,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>599</v>
       </c>
@@ -9006,7 +8888,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>601</v>
       </c>
@@ -9017,7 +8899,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>603</v>
       </c>
@@ -9028,7 +8910,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>604</v>
       </c>
@@ -9039,7 +8921,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>606</v>
       </c>
@@ -9050,7 +8932,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>607</v>
       </c>
@@ -9061,7 +8943,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>609</v>
       </c>
@@ -9072,7 +8954,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>611</v>
       </c>
@@ -9085,14 +8967,14 @@
       <c r="D428" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E428" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F428" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G428" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>613</v>
       </c>
@@ -9105,14 +8987,14 @@
       <c r="D429" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E429" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F429" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G429" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>615</v>
       </c>
@@ -9125,14 +9007,14 @@
       <c r="D430" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E430" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F430" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G430" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>616</v>
       </c>
@@ -9143,7 +9025,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>618</v>
       </c>
@@ -9156,14 +9038,14 @@
       <c r="D432" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E432" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F432" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G432" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>619</v>
       </c>
@@ -9174,7 +9056,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>621</v>
       </c>
@@ -9185,7 +9067,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>622</v>
       </c>
@@ -9196,7 +9078,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>624</v>
       </c>
@@ -9209,14 +9091,14 @@
       <c r="D436" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E436" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F436" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G436" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>625</v>
       </c>
@@ -9229,14 +9111,14 @@
       <c r="D437" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E437" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F437" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G437" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>627</v>
       </c>
@@ -9249,14 +9131,14 @@
       <c r="D438" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E438" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F438" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G438" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>628</v>
       </c>
@@ -9269,14 +9151,14 @@
       <c r="D439" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E439" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F439" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G439" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>629</v>
       </c>
@@ -9289,14 +9171,14 @@
       <c r="D440" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E440" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F440" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G440" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>630</v>
       </c>
@@ -9309,14 +9191,14 @@
       <c r="D441" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E441" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F441" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G441" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>631</v>
       </c>
@@ -9329,14 +9211,14 @@
       <c r="D442" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E442" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F442" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G442" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>632</v>
       </c>
@@ -9349,14 +9231,14 @@
       <c r="D443" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E443" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F443" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G443" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>633</v>
       </c>
@@ -9367,7 +9249,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>635</v>
       </c>
@@ -9378,7 +9260,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>637</v>
       </c>
@@ -9391,14 +9273,14 @@
       <c r="D446" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E446" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F446" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G446" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>638</v>
       </c>
@@ -9411,14 +9293,14 @@
       <c r="D447" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E447" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F447" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G447" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>640</v>
       </c>
@@ -9431,14 +9313,14 @@
       <c r="D448" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E448" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F448" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G448" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>641</v>
       </c>
@@ -9451,11 +9333,11 @@
       <c r="D449" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G449" s="1" t="s">
+      <c r="E449" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>642</v>
       </c>
@@ -9468,14 +9350,14 @@
       <c r="D450" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E450" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F450" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G450" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>643</v>
       </c>
@@ -9488,14 +9370,14 @@
       <c r="D451" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E451" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F451" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G451" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>644</v>
       </c>
@@ -9508,14 +9390,14 @@
       <c r="D452" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E452" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F452" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G452" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>645</v>
       </c>
@@ -9528,14 +9410,14 @@
       <c r="D453" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E453" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F453" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G453" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>647</v>
       </c>
@@ -9548,14 +9430,14 @@
       <c r="D454" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E454" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F454" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G454" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>648</v>
       </c>
@@ -9568,14 +9450,14 @@
       <c r="D455" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E455" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F455" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G455" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>649</v>
       </c>
@@ -9588,14 +9470,14 @@
       <c r="D456" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E456" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F456" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G456" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>650</v>
       </c>
@@ -9606,7 +9488,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>651</v>
       </c>
@@ -9617,7 +9499,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>652</v>
       </c>
@@ -9628,7 +9510,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>653</v>
       </c>
@@ -9639,7 +9521,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>654</v>
       </c>
@@ -9650,7 +9532,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>656</v>
       </c>
@@ -9661,7 +9543,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>658</v>
       </c>
@@ -9674,14 +9556,14 @@
       <c r="D463" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E463" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F463" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G463" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="464" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>659</v>
       </c>
@@ -9692,7 +9574,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>661</v>
       </c>
@@ -9703,7 +9585,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>663</v>
       </c>
@@ -9714,7 +9596,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>665</v>
       </c>
@@ -9727,14 +9609,14 @@
       <c r="D467" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E467" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F467" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G467" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="468" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>666</v>
       </c>
@@ -9745,7 +9627,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>667</v>
       </c>
@@ -9758,14 +9640,14 @@
       <c r="D469" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E469" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F469" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G469" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>668</v>
       </c>
@@ -9776,7 +9658,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>669</v>
       </c>
@@ -9789,14 +9671,14 @@
       <c r="D471" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E471" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F471" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G471" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>671</v>
       </c>
@@ -9807,7 +9689,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>672</v>
       </c>
@@ -9818,7 +9700,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>673</v>
       </c>

--- a/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
@@ -34,15 +34,15 @@
     <t xml:space="preserve">haz_Ab</t>
   </si>
   <si>
+    <t xml:space="preserve">haz_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_cluster</t>
+  </si>
+  <si>
     <t xml:space="preserve">haz_spec</t>
   </si>
   <si>
-    <t xml:space="preserve">haz_cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haz_type</t>
-  </si>
-  <si>
     <t xml:space="preserve">haz_potlink</t>
   </si>
   <si>
@@ -55,15 +55,15 @@
     <t xml:space="preserve">EQ</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypegeohaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazgeoseis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GH0001,GH0002</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haztypegeohaz</t>
-  </si>
-  <si>
     <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
   </si>
   <si>
@@ -76,22 +76,22 @@
     <t xml:space="preserve">WF</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypeenviron</t>
+  </si>
+  <si>
     <t xml:space="preserve">hazenvenvdeg</t>
   </si>
   <si>
-    <t xml:space="preserve">haztypeenviron</t>
-  </si>
-  <si>
     <t xml:space="preserve">flood</t>
   </si>
   <si>
     <t xml:space="preserve">FL</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypehydromet</t>
+  </si>
+  <si>
     <t xml:space="preserve">hazhmflood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haztypehydromet</t>
   </si>
   <si>
     <t xml:space="preserve">rains</t>
@@ -2351,18 +2351,19 @@
   </sheetPr>
   <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E263" activeCellId="0" sqref="E263"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2424,14 +2425,14 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2444,14 +2445,14 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2464,14 +2465,14 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2484,14 +2485,14 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2504,11 +2505,11 @@
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2521,14 +2522,14 @@
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2552,14 +2553,14 @@
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -2572,14 +2573,14 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2592,14 +2593,14 @@
       <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2612,14 +2613,14 @@
       <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2632,14 +2633,14 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,14 +2675,14 @@
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2694,14 +2695,14 @@
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2751,14 +2752,14 @@
       <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -2771,14 +2772,14 @@
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,14 +2792,14 @@
       <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2822,14 +2823,14 @@
       <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -2842,14 +2843,14 @@
       <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2862,14 +2863,14 @@
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -2882,14 +2883,14 @@
       <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2902,14 +2903,14 @@
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2922,14 +2923,14 @@
       <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2964,14 +2965,14 @@
       <c r="D33" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2995,14 +2996,14 @@
       <c r="D35" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
@@ -3026,14 +3027,14 @@
       <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -3046,14 +3047,14 @@
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -3066,14 +3067,14 @@
       <c r="D39" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -3086,14 +3087,14 @@
       <c r="D40" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -3106,14 +3107,14 @@
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -3126,14 +3127,14 @@
       <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -3157,14 +3158,14 @@
       <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -3177,11 +3178,11 @@
       <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -3216,14 +3217,14 @@
       <c r="D48" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -3236,11 +3237,11 @@
       <c r="D49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
@@ -3301,14 +3302,14 @@
       <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3354,11 +3355,11 @@
       <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3393,14 +3394,14 @@
       <c r="D60" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -3413,14 +3414,14 @@
       <c r="D61" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3444,14 +3445,14 @@
       <c r="D63" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
@@ -3475,14 +3476,14 @@
       <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
@@ -3506,14 +3507,14 @@
       <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
@@ -3548,14 +3549,14 @@
       <c r="D70" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -3568,14 +3569,14 @@
       <c r="D71" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
@@ -3588,14 +3589,14 @@
       <c r="D72" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
@@ -3619,14 +3620,14 @@
       <c r="D74" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -3639,14 +3640,14 @@
       <c r="D75" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -3659,14 +3660,14 @@
       <c r="D76" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -3690,14 +3691,14 @@
       <c r="D78" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>151</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>152</v>
       </c>
@@ -3732,11 +3733,11 @@
       <c r="D81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -3749,14 +3750,14 @@
       <c r="D82" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
@@ -3780,14 +3781,14 @@
       <c r="D84" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
@@ -3811,14 +3812,14 @@
       <c r="D86" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>155</v>
       </c>
@@ -3842,14 +3843,14 @@
       <c r="D88" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>126</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>157</v>
       </c>
@@ -3873,14 +3874,14 @@
       <c r="D90" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E90" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>158</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -3904,14 +3905,14 @@
       <c r="D92" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>162</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>164</v>
       </c>
@@ -3935,14 +3936,14 @@
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>166</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>168</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>170</v>
       </c>
@@ -3977,14 +3978,14 @@
       <c r="D97" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>172</v>
       </c>
@@ -3997,11 +3998,11 @@
       <c r="D98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>173</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>174</v>
       </c>
@@ -4025,14 +4026,14 @@
       <c r="D100" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
@@ -4056,14 +4057,14 @@
       <c r="D102" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
@@ -4076,14 +4077,14 @@
       <c r="D103" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E103" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
@@ -4096,14 +4097,14 @@
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E104" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
@@ -4116,14 +4117,14 @@
       <c r="D105" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E105" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>181</v>
       </c>
@@ -4136,14 +4137,14 @@
       <c r="D106" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
@@ -4156,14 +4157,14 @@
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E107" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>184</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>186</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>187</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>190</v>
       </c>
@@ -4220,14 +4221,14 @@
       <c r="D112" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>193</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>195</v>
       </c>
@@ -4251,14 +4252,14 @@
       <c r="D114" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>197</v>
       </c>
@@ -4271,11 +4272,11 @@
       <c r="D115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>198</v>
       </c>
@@ -4288,14 +4289,14 @@
       <c r="D116" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>199</v>
       </c>
@@ -4308,14 +4309,14 @@
       <c r="D117" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E117" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>201</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
@@ -4339,14 +4340,14 @@
       <c r="D119" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E119" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F119" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>205</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>207</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>208</v>
       </c>
@@ -4381,14 +4382,14 @@
       <c r="D122" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E122" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>209</v>
       </c>
@@ -4401,11 +4402,11 @@
       <c r="D123" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>210</v>
       </c>
@@ -4418,14 +4419,14 @@
       <c r="D124" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E124" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>213</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>215</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>217</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>218</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>220</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>222</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>224</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>226</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>228</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>230</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>232</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>234</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>236</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>238</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>240</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>242</v>
       </c>
@@ -4603,14 +4604,14 @@
       <c r="D140" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E140" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>243</v>
       </c>
@@ -4623,14 +4624,14 @@
       <c r="D141" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E141" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F141" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>244</v>
       </c>
@@ -4643,14 +4644,14 @@
       <c r="D142" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E142" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F142" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>246</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>248</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>250</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>252</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>254</v>
       </c>
@@ -4707,14 +4708,14 @@
       <c r="D147" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E147" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>90</v>
       </c>
@@ -4727,14 +4728,14 @@
       <c r="D148" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F148" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>256</v>
       </c>
@@ -4747,14 +4748,14 @@
       <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E149" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F149" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>257</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>258</v>
       </c>
@@ -4778,14 +4779,14 @@
       <c r="D151" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E151" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F151" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>115</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>259</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>260</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>261</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>262</v>
       </c>
@@ -4842,14 +4843,14 @@
       <c r="D156" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E156" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F156" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>263</v>
       </c>
@@ -4862,11 +4863,11 @@
       <c r="D157" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>264</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>267</v>
       </c>
@@ -4890,14 +4891,14 @@
       <c r="D159" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E159" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>269</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>113</v>
       </c>
@@ -4921,11 +4922,11 @@
       <c r="D161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>270</v>
       </c>
@@ -4938,14 +4939,14 @@
       <c r="D162" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E162" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F162" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>272</v>
       </c>
@@ -4958,14 +4959,14 @@
       <c r="D163" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E163" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F163" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>274</v>
       </c>
@@ -4978,14 +4979,14 @@
       <c r="D164" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E164" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F164" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>196</v>
       </c>
@@ -4998,14 +4999,14 @@
       <c r="D165" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E165" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>276</v>
       </c>
@@ -5018,14 +5019,14 @@
       <c r="D166" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E166" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F166" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>278</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>279</v>
       </c>
@@ -5049,14 +5050,14 @@
       <c r="D168" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E168" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>280</v>
       </c>
@@ -5069,14 +5070,14 @@
       <c r="D169" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E169" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>282</v>
       </c>
@@ -5089,14 +5090,14 @@
       <c r="D170" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E170" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>283</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>285</v>
       </c>
@@ -5120,14 +5121,14 @@
       <c r="D172" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E172" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F172" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>286</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>287</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>288</v>
       </c>
@@ -5177,14 +5178,14 @@
       <c r="D175" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E175" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>289</v>
       </c>
@@ -5197,14 +5198,14 @@
       <c r="D176" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E176" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F176" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>290</v>
       </c>
@@ -5217,14 +5218,14 @@
       <c r="D177" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E177" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F177" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>291</v>
       </c>
@@ -5237,11 +5238,11 @@
       <c r="D178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>292</v>
       </c>
@@ -5254,14 +5255,14 @@
       <c r="D179" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E179" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F179" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>293</v>
       </c>
@@ -5274,14 +5275,14 @@
       <c r="D180" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E180" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F180" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>294</v>
       </c>
@@ -5294,14 +5295,14 @@
       <c r="D181" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E181" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F181" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>295</v>
       </c>
@@ -5314,14 +5315,14 @@
       <c r="D182" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E182" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F182" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>296</v>
       </c>
@@ -5332,7 +5333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>298</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>300</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>206</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>302</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>303</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>52</v>
       </c>
@@ -5400,14 +5401,14 @@
       <c r="D189" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E189" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>304</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>305</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>306</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>307</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>308</v>
       </c>
@@ -5467,14 +5468,14 @@
       <c r="D194" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E194" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F194" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>310</v>
       </c>
@@ -5487,14 +5488,14 @@
       <c r="D195" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E195" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>156</v>
       </c>
@@ -5507,14 +5508,14 @@
       <c r="D196" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E196" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F196" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>311</v>
       </c>
@@ -5527,14 +5528,14 @@
       <c r="D197" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E197" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F197" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>312</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>191</v>
       </c>
@@ -5558,14 +5559,14 @@
       <c r="D199" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E199" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F199" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>313</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>314</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>315</v>
       </c>
@@ -5600,14 +5601,14 @@
       <c r="D202" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E202" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F202" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>316</v>
       </c>
@@ -5620,11 +5621,11 @@
       <c r="D203" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
@@ -5648,14 +5649,14 @@
       <c r="D205" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E205" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F205" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>322</v>
       </c>
@@ -5679,14 +5680,14 @@
       <c r="D207" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E207" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F207" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>323</v>
       </c>
@@ -5699,14 +5700,14 @@
       <c r="D208" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E208" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F208" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>325</v>
       </c>
@@ -5719,14 +5720,14 @@
       <c r="D209" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E209" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F209" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>326</v>
       </c>
@@ -5739,11 +5740,11 @@
       <c r="D210" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>327</v>
       </c>
@@ -5756,14 +5757,14 @@
       <c r="D211" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E211" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F211" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>119</v>
       </c>
@@ -5776,14 +5777,14 @@
       <c r="D212" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E212" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F212" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>328</v>
       </c>
@@ -5796,14 +5797,14 @@
       <c r="D213" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E213" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F213" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>167</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>329</v>
       </c>
@@ -5827,14 +5828,14 @@
       <c r="D215" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E215" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F215" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>281</v>
       </c>
@@ -5847,14 +5848,14 @@
       <c r="D216" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E216" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F216" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>330</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>331</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>332</v>
       </c>
@@ -5892,14 +5893,14 @@
       <c r="D219" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E219" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F219" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>333</v>
       </c>
@@ -5912,14 +5913,14 @@
       <c r="D220" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E220" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F220" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>334</v>
       </c>
@@ -5932,14 +5933,14 @@
       <c r="D221" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E221" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F221" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>335</v>
       </c>
@@ -5952,14 +5953,14 @@
       <c r="D222" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E222" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F222" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>336</v>
       </c>
@@ -5972,14 +5973,14 @@
       <c r="D223" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E223" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F223" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>194</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>338</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>339</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>340</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>341</v>
       </c>
@@ -6036,14 +6037,14 @@
       <c r="D228" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E228" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F228" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>342</v>
       </c>
@@ -6056,14 +6057,14 @@
       <c r="D229" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E229" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G229" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>343</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>344</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>345</v>
       </c>
@@ -6098,11 +6099,11 @@
       <c r="D232" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>347</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>349</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>350</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>351</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>352</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>353</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>354</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>355</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>357</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>358</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>359</v>
       </c>
@@ -6225,14 +6226,14 @@
       <c r="D243" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E243" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F243" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>361</v>
       </c>
@@ -6245,14 +6246,14 @@
       <c r="D244" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E244" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>363</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>364</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>366</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>367</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>135</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>370</v>
       </c>
@@ -6320,14 +6321,14 @@
       <c r="D250" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E250" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F250" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>371</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>373</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>374</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>375</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
         <v>376</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>378</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>379</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>381</v>
       </c>
@@ -6417,11 +6418,11 @@
       <c r="D258" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E258" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F258" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,11 +6460,11 @@
       <c r="D261" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E261" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F261" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,13 +6507,13 @@
         <v>390</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>391</v>
+        <v>22</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>23</v>
+        <v>391</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,10 +6584,10 @@
       <c r="D269" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E269" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F269" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G269" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6647,10 +6648,10 @@
       <c r="D274" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E274" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F274" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6689,11 +6690,11 @@
       <c r="D277" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E277" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F277" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,11 +6710,11 @@
       <c r="D278" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E278" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F278" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6754,11 +6755,11 @@
       <c r="D281" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E281" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F281" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,10 +6775,10 @@
       <c r="D282" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E282" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G282" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6794,10 +6795,10 @@
       <c r="D283" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E283" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G283" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6814,10 +6815,10 @@
       <c r="D284" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E284" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F284" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G284" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6834,11 +6835,11 @@
       <c r="D285" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E285" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F285" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,11 +6855,11 @@
       <c r="D286" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E286" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F286" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,10 +6875,10 @@
       <c r="D287" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E287" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F287" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6903,7 +6904,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>431</v>
       </c>
@@ -6916,14 +6917,14 @@
       <c r="D290" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E290" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F290" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G290" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>432</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>433</v>
       </c>
@@ -6947,14 +6948,14 @@
       <c r="D292" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E292" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G292" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>434</v>
       </c>
@@ -6967,14 +6968,14 @@
       <c r="D293" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E293" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F293" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G293" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>435</v>
       </c>
@@ -6987,14 +6988,14 @@
       <c r="D294" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E294" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F294" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G294" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>436</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>438</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>439</v>
       </c>
@@ -7032,14 +7033,14 @@
       <c r="D297" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E297" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F297" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G297" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>440</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>441</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>443</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>444</v>
       </c>
@@ -7100,11 +7101,11 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>445</v>
       </c>
@@ -7117,14 +7118,14 @@
       <c r="D302" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E302" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F302" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G302" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>446</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>447</v>
       </c>
@@ -7148,14 +7149,14 @@
       <c r="D304" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E304" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F304" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G304" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>449</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>450</v>
       </c>
@@ -7179,14 +7180,14 @@
       <c r="D306" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E306" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F306" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G306" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>452</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>74</v>
       </c>
@@ -7210,14 +7211,14 @@
       <c r="D308" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E308" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F308" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G308" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>454</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>455</v>
       </c>
@@ -7241,11 +7242,11 @@
       <c r="D310" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>456</v>
       </c>
@@ -7258,14 +7259,14 @@
       <c r="D311" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E311" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F311" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G311" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>457</v>
       </c>
@@ -7278,14 +7279,14 @@
       <c r="D312" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E312" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F312" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G312" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>458</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>459</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>460</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>461</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>462</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>463</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>464</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>465</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>466</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>467</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>468</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>470</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>472</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>473</v>
       </c>
@@ -7441,14 +7442,14 @@
       <c r="D326" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E326" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F326" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G326" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>476</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>479</v>
       </c>
@@ -7472,14 +7473,14 @@
       <c r="D328" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E328" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F328" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G328" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>480</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>481</v>
       </c>
@@ -7503,14 +7504,14 @@
       <c r="D330" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E330" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F330" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G330" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>483</v>
       </c>
@@ -7523,14 +7524,14 @@
       <c r="D331" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E331" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F331" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G331" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>484</v>
       </c>
@@ -7543,14 +7544,14 @@
       <c r="D332" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E332" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F332" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G332" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>485</v>
       </c>
@@ -7563,14 +7564,14 @@
       <c r="D333" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E333" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F333" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G333" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>486</v>
       </c>
@@ -7583,11 +7584,11 @@
       <c r="D334" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>487</v>
       </c>
@@ -7600,14 +7601,14 @@
       <c r="D335" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E335" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F335" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G335" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>488</v>
       </c>
@@ -7620,14 +7621,14 @@
       <c r="D336" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E336" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F336" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G336" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>489</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>490</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>491</v>
       </c>
@@ -7677,14 +7678,14 @@
       <c r="D339" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E339" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F339" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G339" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>492</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>493</v>
       </c>
@@ -7708,14 +7709,14 @@
       <c r="D341" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E341" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F341" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G341" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>495</v>
       </c>
@@ -7728,14 +7729,14 @@
       <c r="D342" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E342" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F342" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G342" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>496</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>497</v>
       </c>
@@ -7759,14 +7760,14 @@
       <c r="D344" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E344" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F344" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G344" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>498</v>
       </c>
@@ -7779,14 +7780,14 @@
       <c r="D345" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E345" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F345" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G345" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>499</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>500</v>
       </c>
@@ -7810,14 +7811,14 @@
       <c r="D347" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E347" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F347" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G347" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>100</v>
       </c>
@@ -7830,11 +7831,11 @@
       <c r="D348" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G348" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E348" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>502</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>503</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>506</v>
       </c>
@@ -7869,14 +7870,14 @@
       <c r="D351" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E351" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F351" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G351" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>507</v>
       </c>
@@ -7889,14 +7890,14 @@
       <c r="D352" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E352" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F352" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>510</v>
       </c>
@@ -7909,14 +7910,14 @@
       <c r="D353" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E353" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F353" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G353" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>511</v>
       </c>
@@ -7929,14 +7930,14 @@
       <c r="D354" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E354" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F354" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G354" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>513</v>
       </c>
@@ -7949,14 +7950,14 @@
       <c r="D355" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E355" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F355" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G355" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>514</v>
       </c>
@@ -7969,14 +7970,14 @@
       <c r="D356" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E356" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F356" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G356" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>516</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>517</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>518</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>519</v>
       </c>
@@ -8022,7 +8023,7 @@
       <c r="D360" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G360" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8039,14 +8040,14 @@
       <c r="D361" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E361" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F361" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>521</v>
       </c>
@@ -8059,14 +8060,14 @@
       <c r="D362" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E362" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F362" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G362" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>523</v>
       </c>
@@ -8079,14 +8080,14 @@
       <c r="D363" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E363" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F363" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G363" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>525</v>
       </c>
@@ -8097,7 +8098,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>527</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>529</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>531</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>533</v>
       </c>
@@ -8143,14 +8144,14 @@
       <c r="D368" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E368" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F368" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G368" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>534</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>536</v>
       </c>
@@ -8174,14 +8175,14 @@
       <c r="D370" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E370" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F370" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G370" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>539</v>
       </c>
@@ -8194,14 +8195,14 @@
       <c r="D371" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E371" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F371" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G371" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>542</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>544</v>
       </c>
@@ -8225,14 +8226,14 @@
       <c r="D373" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E373" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F373" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G373" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>546</v>
       </c>
@@ -8245,14 +8246,14 @@
       <c r="D374" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E374" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F374" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G374" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>548</v>
       </c>
@@ -8265,14 +8266,14 @@
       <c r="D375" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E375" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F375" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G375" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>549</v>
       </c>
@@ -8285,14 +8286,14 @@
       <c r="D376" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E376" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F376" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G376" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>550</v>
       </c>
@@ -8305,14 +8306,14 @@
       <c r="D377" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E377" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F377" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G377" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>551</v>
       </c>
@@ -8325,14 +8326,14 @@
       <c r="D378" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E378" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F378" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G378" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>552</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>553</v>
       </c>
@@ -8356,14 +8357,14 @@
       <c r="D380" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E380" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F380" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G380" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>554</v>
       </c>
@@ -8376,14 +8377,14 @@
       <c r="D381" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E381" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F381" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G381" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>556</v>
       </c>
@@ -8396,14 +8397,14 @@
       <c r="D382" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E382" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F382" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G382" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>557</v>
       </c>
@@ -8416,11 +8417,11 @@
       <c r="D383" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G383" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E383" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>558</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>559</v>
       </c>
@@ -8444,11 +8445,11 @@
       <c r="D385" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>560</v>
       </c>
@@ -8461,14 +8462,14 @@
       <c r="D386" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E386" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F386" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G386" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>561</v>
       </c>
@@ -8481,14 +8482,14 @@
       <c r="D387" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E387" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F387" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G387" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>562</v>
       </c>
@@ -8501,14 +8502,14 @@
       <c r="D388" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E388" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F388" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G388" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>563</v>
       </c>
@@ -8521,14 +8522,14 @@
       <c r="D389" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E389" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F389" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G389" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>564</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>566</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>567</v>
       </c>
@@ -8563,11 +8564,11 @@
       <c r="D392" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G392" s="1" t="s">
+      <c r="E392" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>568</v>
       </c>
@@ -8580,14 +8581,14 @@
       <c r="D393" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E393" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F393" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G393" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>569</v>
       </c>
@@ -8600,14 +8601,14 @@
       <c r="D394" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E394" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F394" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G394" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>570</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>571</v>
       </c>
@@ -8646,14 +8647,14 @@
       <c r="D396" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E396" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F396" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G396" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>572</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>573</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>575</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>576</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>577</v>
       </c>
@@ -8710,11 +8711,11 @@
       <c r="D401" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G401" s="1" t="s">
+      <c r="E401" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>579</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>580</v>
       </c>
@@ -8738,14 +8739,14 @@
       <c r="D403" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E403" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F403" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G403" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>581</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>582</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>584</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>587</v>
       </c>
@@ -8791,14 +8792,14 @@
       <c r="D407" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E407" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F407" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G407" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>588</v>
       </c>
@@ -8811,14 +8812,14 @@
       <c r="D408" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E408" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F408" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G408" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>589</v>
       </c>
@@ -8831,14 +8832,14 @@
       <c r="D409" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E409" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F409" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G409" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>590</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>591</v>
       </c>
@@ -8862,14 +8863,14 @@
       <c r="D411" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E411" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F411" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G411" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>593</v>
       </c>
@@ -8882,11 +8883,11 @@
       <c r="D412" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G412" s="1" t="s">
+      <c r="E412" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>594</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>595</v>
       </c>
@@ -8910,14 +8911,14 @@
       <c r="D414" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E414" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F414" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G414" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>596</v>
       </c>
@@ -8930,14 +8931,14 @@
       <c r="D415" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E415" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F415" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G415" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>597</v>
       </c>
@@ -8950,14 +8951,14 @@
       <c r="D416" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E416" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F416" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G416" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>598</v>
       </c>
@@ -8970,14 +8971,14 @@
       <c r="D417" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E417" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F417" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G417" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>600</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>603</v>
       </c>
@@ -9001,14 +9002,14 @@
       <c r="D419" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E419" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F419" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G419" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>605</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>606</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>607</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>608</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>610</v>
       </c>
@@ -9080,14 +9081,14 @@
       <c r="D424" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E424" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F424" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G424" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>611</v>
       </c>
@@ -9100,14 +9101,14 @@
       <c r="D425" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E425" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F425" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G425" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>612</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>613</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>615</v>
       </c>
@@ -9142,11 +9143,11 @@
       <c r="D428" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E428" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F428" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,14 +9163,14 @@
       <c r="D429" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E429" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F429" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G429" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>617</v>
       </c>
@@ -9182,14 +9183,14 @@
       <c r="D430" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E430" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F430" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G430" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>618</v>
       </c>
@@ -9202,14 +9203,14 @@
       <c r="D431" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E431" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F431" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G431" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>619</v>
       </c>
@@ -9222,14 +9223,14 @@
       <c r="D432" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E432" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F432" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G432" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>621</v>
       </c>
@@ -9242,14 +9243,14 @@
       <c r="D433" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E433" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F433" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G433" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>622</v>
       </c>
@@ -9262,14 +9263,14 @@
       <c r="D434" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E434" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F434" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G434" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>624</v>
       </c>
@@ -9282,14 +9283,14 @@
       <c r="D435" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E435" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F435" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G435" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>625</v>
       </c>
@@ -9302,14 +9303,14 @@
       <c r="D436" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E436" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F436" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G436" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>627</v>
       </c>
@@ -9322,14 +9323,14 @@
       <c r="D437" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E437" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F437" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G437" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>628</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>629</v>
       </c>
@@ -9353,11 +9354,11 @@
       <c r="D439" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G439" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E439" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>631</v>
       </c>
@@ -9370,14 +9371,14 @@
       <c r="D440" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E440" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F440" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G440" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>633</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>635</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>637</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>639</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>641</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>642</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>644</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>645</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>647</v>
       </c>
@@ -9476,7 +9477,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>649</v>
       </c>
@@ -9489,14 +9490,14 @@
       <c r="D450" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E450" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F450" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G450" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>651</v>
       </c>
@@ -9509,14 +9510,14 @@
       <c r="D451" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E451" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F451" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G451" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>653</v>
       </c>
@@ -9529,14 +9530,14 @@
       <c r="D452" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E452" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F452" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G452" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>654</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>656</v>
       </c>
@@ -9560,14 +9561,14 @@
       <c r="D454" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E454" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F454" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G454" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>657</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>659</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>660</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>662</v>
       </c>
@@ -9613,14 +9614,14 @@
       <c r="D458" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E458" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F458" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G458" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>663</v>
       </c>
@@ -9633,14 +9634,14 @@
       <c r="D459" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E459" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F459" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G459" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>665</v>
       </c>
@@ -9653,14 +9654,14 @@
       <c r="D460" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E460" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F460" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G460" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>666</v>
       </c>
@@ -9673,14 +9674,14 @@
       <c r="D461" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E461" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F461" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G461" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>667</v>
       </c>
@@ -9693,14 +9694,14 @@
       <c r="D462" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E462" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F462" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G462" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>668</v>
       </c>
@@ -9713,14 +9714,14 @@
       <c r="D463" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E463" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F463" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G463" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>669</v>
       </c>
@@ -9733,14 +9734,14 @@
       <c r="D464" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E464" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F464" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G464" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>670</v>
       </c>
@@ -9753,14 +9754,14 @@
       <c r="D465" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E465" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F465" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G465" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>671</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>673</v>
       </c>
@@ -9782,7 +9783,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>675</v>
       </c>
@@ -9795,14 +9796,14 @@
       <c r="D468" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E468" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F468" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G468" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>676</v>
       </c>
@@ -9815,14 +9816,14 @@
       <c r="D469" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E469" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F469" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G469" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>678</v>
       </c>
@@ -9835,14 +9836,14 @@
       <c r="D470" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E470" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F470" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G470" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>679</v>
       </c>
@@ -9855,11 +9856,11 @@
       <c r="D471" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G471" s="1" t="s">
+      <c r="E471" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>680</v>
       </c>
@@ -9872,14 +9873,14 @@
       <c r="D472" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E472" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F472" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G472" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>681</v>
       </c>
@@ -9892,14 +9893,14 @@
       <c r="D473" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E473" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F473" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G473" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>682</v>
       </c>
@@ -9912,14 +9913,14 @@
       <c r="D474" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E474" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F474" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G474" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>683</v>
       </c>
@@ -9932,14 +9933,14 @@
       <c r="D475" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E475" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F475" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G475" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>685</v>
       </c>
@@ -9952,14 +9953,14 @@
       <c r="D476" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E476" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F476" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G476" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
         <v>686</v>
       </c>
@@ -9972,14 +9973,14 @@
       <c r="D477" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E477" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F477" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G477" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>687</v>
       </c>
@@ -9992,14 +9993,14 @@
       <c r="D478" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E478" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F478" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G478" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>688</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>689</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
         <v>690</v>
       </c>
@@ -10032,7 +10033,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>691</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>692</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>694</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
         <v>696</v>
       </c>
@@ -10078,14 +10079,14 @@
       <c r="D485" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E485" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F485" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G485" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="486" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
         <v>697</v>
       </c>
@@ -10096,7 +10097,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>699</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>701</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>703</v>
       </c>
@@ -10131,14 +10132,14 @@
       <c r="D489" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="E489" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F489" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G489" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="490" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>704</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>705</v>
       </c>
@@ -10162,14 +10163,14 @@
       <c r="D491" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E491" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F491" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G491" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>706</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>707</v>
       </c>
@@ -10193,14 +10194,14 @@
       <c r="D493" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E493" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F493" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G493" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>709</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>710</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>711</v>
       </c>

--- a/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/Desinventar_HIP.xlsx
@@ -61,10 +61,10 @@
     <t xml:space="preserve">hazgeoseis</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0001,GH0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
+    <t xml:space="preserve">GH0001:GH0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0003:GH0004:GH0005:GH0006:GH0007</t>
   </si>
   <si>
     <t xml:space="preserve">fire</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">SS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmmarine,hazhmflood,hazhmwind</t>
+    <t xml:space="preserve">hazhmmarine:hazhmflood:hazhmwind</t>
   </si>
   <si>
     <t xml:space="preserve">panic</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">DR</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmprecip,hazhmtemp</t>
+    <t xml:space="preserve">hazhmprecip:hazhmtemp</t>
   </si>
   <si>
     <t xml:space="preserve">tsunami</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">TS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoother,hazhmmarine,hazhmflood</t>
+    <t xml:space="preserve">hazgeoother:hazhmmarine:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">cyclone</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">TC</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmwind,hazhmpress,hazhmconv,hazhmflood</t>
+    <t xml:space="preserve">hazhmwind:hazhmpress:hazhmconv:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">strong wind</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">VW</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmwind,hazhmpress</t>
+    <t xml:space="preserve">hazhmwind:hazhmpress</t>
   </si>
   <si>
     <t xml:space="preserve">hailstorm</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">tidal wave</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmmarine,hazhmflood</t>
+    <t xml:space="preserve">hazhmmarine:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis,hazenvenvdeg,hazgeovolc,hazgeoother</t>
+    <t xml:space="preserve">hazgeoseis:hazenvenvdeg:hazgeovolc:hazgeoother</t>
   </si>
   <si>
     <t xml:space="preserve">heat wave</t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">storm</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmconv,hazhmwind,hazhmpress,hazhmflood</t>
+    <t xml:space="preserve">hazhmconv:hazhmwind:hazhmpress:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">forest fire</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">liquefaction</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis,hazgeoother</t>
+    <t xml:space="preserve">hazgeoseis:hazgeoother</t>
   </si>
   <si>
     <t xml:space="preserve">leak</t>
@@ -835,7 +835,7 @@
     <t xml:space="preserve">coastal flood</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmflood,hazhmmarine</t>
+    <t xml:space="preserve">hazhmflood:hazhmmarine</t>
   </si>
   <si>
     <t xml:space="preserve">flooding</t>
@@ -964,7 +964,34 @@
     <t xml:space="preserve">ສັດຕູພືດ</t>
   </si>
   <si>
-    <t xml:space="preserve">ອຸປະຕິເຫດຖ/ໜ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ອຸປະຕິເຫດຖ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ໜ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ຝົນຕົກ</t>
@@ -2113,7 +2140,34 @@
     <t xml:space="preserve">امواج عالية</t>
   </si>
   <si>
-    <t xml:space="preserve">وفاة/اصابة</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">وفاة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">اصابة</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">death/injury</t>
@@ -2134,7 +2188,34 @@
     <t xml:space="preserve">انهيار صخور</t>
   </si>
   <si>
-    <t xml:space="preserve">وفاة/مصاب</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">وفاة</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">مصاب</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">تسونامي</t>
@@ -2168,7 +2249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2190,6 +2271,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2256,7 +2343,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2264,7 +2351,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2274,12 +2361,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2345,22 +2432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H496"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="87" sqref="F8 F10:F13 F18 F22 F25:F27 F33 F38 F42 F44 F61 F63 F65 F70 F75 F82 F88 F94 F100 F105 F107 F116 F119 F122 F140 F147:F149 F156 F162 F172 F176 F179 F181 F196:F197 F208 F213 F217 F220 F222 F243 F258 F261 F277 F281 F286 F290 F293:F294 F302 F311:F312 F330:F331 F333 F336 F339 F345 F347 F352 F361 F368 F370:F371 F376 F382 F386 F389 F394 F407 F409 F414:F416 F428 F431 F437 F452 F458:F459 F461 F465 F468 F470 F473:F475 F477:F478 F485 F491 G2:H2 G20:H20 G52:H52 G174:H174 G262:H262 G300:H300 G338:H338 G395:H395 G420:H420 H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="10.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +5093,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -5027,7 +5113,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -5038,7 +5124,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -5058,7 +5144,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -5078,7 +5164,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -5098,7 +5184,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -5109,7 +5195,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -5129,7 +5215,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -5140,7 +5226,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -5166,7 +5252,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -5186,7 +5272,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -5206,7 +5292,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -5226,7 +5312,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -5243,7 +5329,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -5263,7 +5349,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -5283,7 +5369,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -5303,7 +5389,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -5323,7 +5409,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -5334,7 +5420,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -5456,7 +5542,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -5476,7 +5562,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -5516,7 +5602,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -5536,7 +5622,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -5567,7 +5653,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -5578,7 +5664,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -5589,7 +5675,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -5609,7 +5695,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -5626,7 +5712,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -5637,7 +5723,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -5657,7 +5743,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -5668,7 +5754,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -6426,10 +6512,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>382</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -6437,10 +6523,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>384</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -6448,10 +6534,10 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>385</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -6468,7 +6554,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -6494,7 +6580,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -6517,7 +6603,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -6528,7 +6614,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B265" s="5" t="s">
@@ -6539,7 +6625,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B266" s="5" t="s">
@@ -6550,7 +6636,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B267" s="5" t="s">
@@ -6561,7 +6647,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -6572,10 +6658,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>403</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -6592,7 +6678,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -6603,7 +6689,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -6614,7 +6700,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -6625,7 +6711,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -6636,7 +6722,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -6656,7 +6742,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -6667,7 +6753,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -6678,7 +6764,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -6698,7 +6784,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -6718,7 +6804,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B279" s="5" t="s">
@@ -6729,7 +6815,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -9804,7 +9890,7 @@
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="2" t="s">
         <v>676</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -9824,7 +9910,7 @@
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="2" t="s">
         <v>678</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -9844,7 +9930,7 @@
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="2" t="s">
         <v>679</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -9861,7 +9947,7 @@
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="2" t="s">
         <v>680</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -9881,7 +9967,7 @@
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="2" t="s">
         <v>681</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -9901,7 +9987,7 @@
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="2" t="s">
         <v>682</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -9921,7 +10007,7 @@
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="2" t="s">
         <v>683</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -9941,7 +10027,7 @@
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="2" t="s">
         <v>685</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -9961,7 +10047,7 @@
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="2" t="s">
         <v>686</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -9981,7 +10067,7 @@
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="2" t="s">
         <v>687</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -10001,7 +10087,7 @@
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="2" t="s">
         <v>688</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -10012,7 +10098,7 @@
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="2" t="s">
         <v>689</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -10023,7 +10109,7 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="2" t="s">
         <v>690</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -10034,7 +10120,7 @@
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="2" t="s">
         <v>691</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -10045,7 +10131,7 @@
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="2" t="s">
         <v>692</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -10056,7 +10142,7 @@
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="2" t="s">
         <v>694</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -10067,7 +10153,7 @@
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="2" t="s">
         <v>696</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -10087,7 +10173,7 @@
       </c>
     </row>
     <row r="486" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="2" t="s">
         <v>697</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -10098,7 +10184,7 @@
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="2" t="s">
         <v>699</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -10109,7 +10195,7 @@
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="2" t="s">
         <v>701</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -10120,7 +10206,7 @@
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="2" t="s">
         <v>703</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -10140,7 +10226,7 @@
       </c>
     </row>
     <row r="490" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="2" t="s">
         <v>704</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -10151,7 +10237,7 @@
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="2" t="s">
         <v>705</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -10171,7 +10257,7 @@
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="2" t="s">
         <v>706</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -10182,7 +10268,7 @@
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="2" t="s">
         <v>707</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -10202,7 +10288,7 @@
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="2" t="s">
         <v>709</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -10213,7 +10299,7 @@
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -10236,8 +10322,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
